--- a/data/shift_template.xlsx
+++ b/data/shift_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaito_taniguchi/workplace/development/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaito/workspace/nurse-scheduling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FD4E10-FD66-D64A-B43C-C07F07A42593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B76EE4B-7833-DD4A-8E0A-DC3AD534EF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5400" yWindow="-21600" windowWidth="38400" windowHeight="21600" xr2:uid="{BA1CFE34-24FB-5A4A-B398-47E3D4F9E979}"/>
+    <workbookView xWindow="-3200" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{BA1CFE34-24FB-5A4A-B398-47E3D4F9E979}"/>
   </bookViews>
   <sheets>
     <sheet name="シフト表" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">シフト表!$A$1:$AG$23</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1279,7 +1279,7 @@
     <numFmt numFmtId="178" formatCode="[Black][&lt;171]General;[Red][&gt;172]General"/>
     <numFmt numFmtId="179" formatCode="[Black][&lt;8]General;[Red][&gt;8.01]General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1384,14 +1384,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
@@ -2231,89 +2223,617 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="11" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="11" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="11" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="58" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="58" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="58" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="11" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="16" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2321,537 +2841,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="11" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="11" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="11" fillId="0" borderId="46" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="54" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="3" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="56" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="57" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="58" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="58" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="57" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="58" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="61" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="11" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3494,5157 +3483,5241 @@
   <dimension ref="A1:BU45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="104" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="104" customWidth="1"/>
-    <col min="3" max="29" width="4.7109375" style="105" customWidth="1"/>
-    <col min="30" max="33" width="4.7109375" style="106" customWidth="1"/>
-    <col min="34" max="34" width="7.140625" style="2" customWidth="1"/>
-    <col min="35" max="35" width="7.5703125" style="2" customWidth="1"/>
-    <col min="36" max="36" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.7109375" style="2" customWidth="1"/>
-    <col min="38" max="45" width="6.28515625" style="2" customWidth="1"/>
-    <col min="46" max="16384" width="7.7109375" style="2"/>
+    <col min="1" max="1" width="5.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" style="60" customWidth="1"/>
+    <col min="3" max="29" width="4.7109375" style="17" customWidth="1"/>
+    <col min="30" max="33" width="4.7109375" style="61" customWidth="1"/>
+    <col min="34" max="34" width="7.140625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="7.5703125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.7109375" style="1" customWidth="1"/>
+    <col min="38" max="45" width="6.28515625" style="1" customWidth="1"/>
+    <col min="46" max="16384" width="7.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
+      <c r="A1" s="194" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="194"/>
+      <c r="P1" s="194"/>
+      <c r="Q1" s="194"/>
+      <c r="R1" s="194"/>
+      <c r="S1" s="194"/>
+      <c r="T1" s="194"/>
+      <c r="U1" s="194"/>
+      <c r="V1" s="194"/>
+      <c r="W1" s="194"/>
+      <c r="X1" s="194"/>
+      <c r="Y1" s="194"/>
+      <c r="Z1" s="194"/>
+      <c r="AA1" s="194"/>
+      <c r="AB1" s="194"/>
+      <c r="AC1" s="194"/>
+      <c r="AD1" s="194"/>
+      <c r="AE1" s="194"/>
+      <c r="AF1" s="194"/>
+      <c r="AG1" s="194"/>
     </row>
     <row r="2" spans="1:73" ht="71.25" customHeight="1" thickBot="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AS2" s="4"/>
+      <c r="A2" s="195"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+      <c r="L2" s="195"/>
+      <c r="M2" s="195"/>
+      <c r="N2" s="195"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="195"/>
+      <c r="T2" s="195"/>
+      <c r="U2" s="195"/>
+      <c r="V2" s="195"/>
+      <c r="W2" s="195"/>
+      <c r="X2" s="195"/>
+      <c r="Y2" s="195"/>
+      <c r="Z2" s="195"/>
+      <c r="AA2" s="195"/>
+      <c r="AB2" s="195"/>
+      <c r="AC2" s="195"/>
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="195"/>
+      <c r="AG2" s="195"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AS2" s="2"/>
     </row>
     <row r="3" spans="1:73" ht="24.75" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="196">
         <v>2025</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="196"/>
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="5">
         <v>8</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="11">
+      <c r="I3" s="197"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="197"/>
+      <c r="L3" s="197"/>
+      <c r="M3" s="197"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="7">
         <v>7</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="Q3" s="5">
         <v>21</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="5">
         <v>8</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="8">
+      <c r="V3" s="5">
         <v>20</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="10" t="s">
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="9">
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="197"/>
+      <c r="AC3" s="6">
         <v>13</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AD3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="15" t="s">
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="198" t="s">
         <v>8</v>
       </c>
-      <c r="AM3" s="16" t="s">
+      <c r="AM3" s="201" t="s">
         <v>9</v>
       </c>
-      <c r="AN3" s="17" t="s">
+      <c r="AN3" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="AO3" s="17" t="s">
+      <c r="AO3" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="AP3" s="17" t="s">
+      <c r="AP3" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="AQ3" s="18" t="s">
+      <c r="AQ3" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="AR3" s="19" t="s">
+      <c r="AR3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="AS3" s="20" t="s">
+      <c r="AS3" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="AV3" s="21"/>
-      <c r="AW3" s="21"/>
-      <c r="AX3" s="22"/>
-      <c r="AZ3" s="21"/>
-      <c r="BF3" s="21"/>
-      <c r="BG3" s="23"/>
-      <c r="BH3" s="21"/>
-      <c r="BI3" s="21"/>
-      <c r="BJ3" s="21"/>
-      <c r="BL3" s="21"/>
-      <c r="BM3" s="23"/>
-      <c r="BN3" s="21"/>
-      <c r="BO3" s="23"/>
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="12"/>
+      <c r="AZ3" s="11"/>
+      <c r="BF3" s="11"/>
+      <c r="BG3" s="13"/>
+      <c r="BH3" s="11"/>
+      <c r="BI3" s="11"/>
+      <c r="BJ3" s="11"/>
+      <c r="BL3" s="11"/>
+      <c r="BM3" s="13"/>
+      <c r="BN3" s="11"/>
+      <c r="BO3" s="13"/>
     </row>
     <row r="4" spans="1:73" ht="25" customHeight="1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26">
+      <c r="B4" s="184"/>
+      <c r="C4" s="15">
         <f>DATE(B3,O3,21)</f>
         <v>45859</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="15">
         <f>IF(C4="","",IF(DAY(C4)=20,"",C4+1))</f>
         <v>45860</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="15">
         <f t="shared" ref="E4:AG4" si="0">IF(D4="","",IF(DAY(D4)=20,"",D4+1))</f>
         <v>45861</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="15">
         <f t="shared" si="0"/>
         <v>45862</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="15">
         <f t="shared" si="0"/>
         <v>45863</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="15">
         <f t="shared" si="0"/>
         <v>45864</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="15">
         <f t="shared" si="0"/>
         <v>45865</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="15">
         <f t="shared" si="0"/>
         <v>45866</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="15">
         <f t="shared" si="0"/>
         <v>45867</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="15">
         <f t="shared" si="0"/>
         <v>45868</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="15">
         <f t="shared" si="0"/>
         <v>45869</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="15">
         <f t="shared" si="0"/>
         <v>45870</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="15">
         <f t="shared" si="0"/>
         <v>45871</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="15">
         <f t="shared" si="0"/>
         <v>45872</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="15">
         <f t="shared" si="0"/>
         <v>45873</v>
       </c>
-      <c r="R4" s="26">
+      <c r="R4" s="15">
         <f t="shared" si="0"/>
         <v>45874</v>
       </c>
-      <c r="S4" s="26">
+      <c r="S4" s="15">
         <f t="shared" si="0"/>
         <v>45875</v>
       </c>
-      <c r="T4" s="26">
+      <c r="T4" s="15">
         <f t="shared" si="0"/>
         <v>45876</v>
       </c>
-      <c r="U4" s="26">
+      <c r="U4" s="15">
         <f t="shared" si="0"/>
         <v>45877</v>
       </c>
-      <c r="V4" s="26">
+      <c r="V4" s="15">
         <f t="shared" si="0"/>
         <v>45878</v>
       </c>
-      <c r="W4" s="26">
+      <c r="W4" s="15">
         <f t="shared" si="0"/>
         <v>45879</v>
       </c>
-      <c r="X4" s="27">
+      <c r="X4" s="16">
         <f t="shared" si="0"/>
         <v>45880</v>
       </c>
-      <c r="Y4" s="26">
+      <c r="Y4" s="15">
         <f t="shared" si="0"/>
         <v>45881</v>
       </c>
-      <c r="Z4" s="26">
+      <c r="Z4" s="15">
         <f t="shared" si="0"/>
         <v>45882</v>
       </c>
-      <c r="AA4" s="26">
+      <c r="AA4" s="15">
         <f t="shared" si="0"/>
         <v>45883</v>
       </c>
-      <c r="AB4" s="26">
+      <c r="AB4" s="15">
         <f t="shared" si="0"/>
         <v>45884</v>
       </c>
-      <c r="AC4" s="26">
+      <c r="AC4" s="15">
         <f t="shared" si="0"/>
         <v>45885</v>
       </c>
-      <c r="AD4" s="26">
+      <c r="AD4" s="15">
         <f t="shared" si="0"/>
         <v>45886</v>
       </c>
-      <c r="AE4" s="26">
+      <c r="AE4" s="15">
         <f t="shared" si="0"/>
         <v>45887</v>
       </c>
-      <c r="AF4" s="26">
+      <c r="AF4" s="15">
         <f t="shared" si="0"/>
         <v>45888</v>
       </c>
-      <c r="AG4" s="26">
+      <c r="AG4" s="15">
         <f t="shared" si="0"/>
         <v>45889</v>
       </c>
-      <c r="AH4" s="28" t="s">
+      <c r="AH4" s="204" t="s">
         <v>17</v>
       </c>
-      <c r="AI4" s="29" t="s">
+      <c r="AI4" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="AJ4" s="29" t="s">
+      <c r="AJ4" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="AK4" s="30" t="s">
+      <c r="AK4" s="182" t="s">
         <v>20</v>
       </c>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="33"/>
-      <c r="AO4" s="33"/>
-      <c r="AP4" s="33"/>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="36"/>
-      <c r="AV4" s="21"/>
-      <c r="AW4" s="21"/>
-      <c r="AX4" s="22"/>
-      <c r="AZ4" s="21"/>
-      <c r="BF4" s="21"/>
-      <c r="BG4" s="23"/>
-      <c r="BH4" s="21"/>
-      <c r="BI4" s="21"/>
-      <c r="BJ4" s="21"/>
-      <c r="BL4" s="21"/>
-      <c r="BM4" s="23"/>
-      <c r="BN4" s="21"/>
-      <c r="BO4" s="23"/>
+      <c r="AL4" s="199"/>
+      <c r="AM4" s="202"/>
+      <c r="AN4" s="186"/>
+      <c r="AO4" s="186"/>
+      <c r="AP4" s="186"/>
+      <c r="AQ4" s="188"/>
+      <c r="AR4" s="190"/>
+      <c r="AS4" s="192"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="12"/>
+      <c r="AZ4" s="11"/>
+      <c r="BF4" s="11"/>
+      <c r="BG4" s="13"/>
+      <c r="BH4" s="11"/>
+      <c r="BI4" s="11"/>
+      <c r="BJ4" s="11"/>
+      <c r="BL4" s="11"/>
+      <c r="BM4" s="13"/>
+      <c r="BN4" s="11"/>
+      <c r="BO4" s="13"/>
     </row>
     <row r="5" spans="1:73" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="37" t="str">
+      <c r="B5" s="184"/>
+      <c r="C5" s="18" t="str">
         <f>TEXT(C4,"aaa")</f>
         <v>月</v>
       </c>
-      <c r="D5" s="37" t="str">
+      <c r="D5" s="18" t="str">
         <f t="shared" ref="D5:AG5" si="1">TEXT(D4,"aaa")</f>
         <v>火</v>
       </c>
-      <c r="E5" s="37" t="str">
+      <c r="E5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>水</v>
       </c>
-      <c r="F5" s="37" t="str">
+      <c r="F5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>木</v>
       </c>
-      <c r="G5" s="37" t="str">
+      <c r="G5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>金</v>
       </c>
-      <c r="H5" s="37" t="str">
+      <c r="H5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>土</v>
       </c>
-      <c r="I5" s="37" t="str">
+      <c r="I5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>日</v>
       </c>
-      <c r="J5" s="37" t="str">
+      <c r="J5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>月</v>
       </c>
-      <c r="K5" s="37" t="str">
+      <c r="K5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>火</v>
       </c>
-      <c r="L5" s="37" t="str">
+      <c r="L5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>水</v>
       </c>
-      <c r="M5" s="37" t="str">
+      <c r="M5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>木</v>
       </c>
-      <c r="N5" s="37" t="str">
+      <c r="N5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>金</v>
       </c>
-      <c r="O5" s="37" t="str">
+      <c r="O5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>土</v>
       </c>
-      <c r="P5" s="37" t="str">
+      <c r="P5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>日</v>
       </c>
-      <c r="Q5" s="37" t="str">
+      <c r="Q5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>月</v>
       </c>
-      <c r="R5" s="37" t="str">
+      <c r="R5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>火</v>
       </c>
-      <c r="S5" s="37" t="str">
+      <c r="S5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>水</v>
       </c>
-      <c r="T5" s="37" t="str">
+      <c r="T5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>木</v>
       </c>
-      <c r="U5" s="37" t="str">
+      <c r="U5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>金</v>
       </c>
-      <c r="V5" s="37" t="str">
+      <c r="V5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>土</v>
       </c>
-      <c r="W5" s="37" t="str">
+      <c r="W5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>日</v>
       </c>
-      <c r="X5" s="37" t="str">
+      <c r="X5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>月</v>
       </c>
-      <c r="Y5" s="37" t="str">
+      <c r="Y5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>火</v>
       </c>
-      <c r="Z5" s="37" t="str">
+      <c r="Z5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>水</v>
       </c>
-      <c r="AA5" s="37" t="str">
+      <c r="AA5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>木</v>
       </c>
-      <c r="AB5" s="37" t="str">
+      <c r="AB5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>金</v>
       </c>
-      <c r="AC5" s="37" t="str">
+      <c r="AC5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>土</v>
       </c>
-      <c r="AD5" s="37" t="str">
+      <c r="AD5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>日</v>
       </c>
-      <c r="AE5" s="37" t="str">
+      <c r="AE5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>月</v>
       </c>
-      <c r="AF5" s="37" t="str">
+      <c r="AF5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>火</v>
       </c>
-      <c r="AG5" s="37" t="str">
+      <c r="AG5" s="18" t="str">
         <f t="shared" si="1"/>
         <v>水</v>
       </c>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="43"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="44"/>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="46"/>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="4"/>
-      <c r="AX5" s="4"/>
-      <c r="AY5" s="4"/>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="4"/>
-      <c r="BB5" s="4"/>
-      <c r="BC5" s="4"/>
-      <c r="BD5" s="4"/>
-      <c r="BE5" s="4"/>
-      <c r="BF5" s="4"/>
-      <c r="BG5" s="4"/>
-      <c r="BH5" s="4"/>
-      <c r="BI5" s="4"/>
-      <c r="BJ5" s="4"/>
-      <c r="BL5" s="4"/>
-      <c r="BM5" s="4"/>
-      <c r="BN5" s="4"/>
-      <c r="BO5" s="4"/>
+      <c r="AH5" s="135"/>
+      <c r="AI5" s="168"/>
+      <c r="AJ5" s="168"/>
+      <c r="AK5" s="133"/>
+      <c r="AL5" s="200"/>
+      <c r="AM5" s="203"/>
+      <c r="AN5" s="187"/>
+      <c r="AO5" s="187"/>
+      <c r="AP5" s="187"/>
+      <c r="AQ5" s="189"/>
+      <c r="AR5" s="191"/>
+      <c r="AS5" s="193"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2"/>
+      <c r="BL5" s="2"/>
+      <c r="BM5" s="2"/>
+      <c r="BN5" s="2"/>
+      <c r="BO5" s="2"/>
     </row>
     <row r="6" spans="1:73" ht="30" customHeight="1">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="176" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="49"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="49"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
-      <c r="Y6" s="49"/>
-      <c r="Z6" s="49"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
-      <c r="AC6" s="49"/>
-      <c r="AD6" s="49"/>
-      <c r="AE6" s="49"/>
-      <c r="AF6" s="49"/>
-      <c r="AG6" s="49"/>
-      <c r="AH6" s="50">
+      <c r="B6" s="174"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="20">
         <f t="shared" ref="AH6:AH21" si="2">$T28+($V28*0.5)+($X28*0.5)+$Z28+($AB28*0.5)+($AH28*0.5)+($AK28*0.5)+($AM28*0.5)</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="51">
+      <c r="AI6" s="14">
         <f t="shared" ref="AI6:AI21" si="3">$AD28+($X28*0.5)+($AF28*0.5)+($AH28*0.5)+($AN28*0.25)</f>
         <v>0</v>
       </c>
-      <c r="AJ6" s="52">
+      <c r="AJ6" s="21">
         <f t="shared" ref="AJ6:AJ21" si="4">$A28-$AI6</f>
         <v>0</v>
       </c>
-      <c r="AK6" s="53">
+      <c r="AK6" s="22">
         <f t="shared" ref="AK6:AK21" si="5">SUM($AI28)+($AJ28*0.5)+($AK28*0.5)</f>
         <v>0</v>
       </c>
-      <c r="AL6" s="54">
+      <c r="AL6" s="23">
         <f>COUNTIFS(C6:AG6,"夜")-(AM6)</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="51">
+      <c r="AM6" s="14">
         <f>COUNTIFS(C6:AG6,"夜",$C$5:$AG$5,"水")</f>
         <v>0</v>
       </c>
-      <c r="AN6" s="55">
+      <c r="AN6" s="24">
         <f>COUNTIF(C6:AG6,"残")</f>
         <v>0</v>
       </c>
-      <c r="AO6" s="55">
+      <c r="AO6" s="24">
         <f>COUNTIF(C6:AG6,"早")</f>
         <v>0</v>
       </c>
-      <c r="AP6" s="55">
+      <c r="AP6" s="24">
         <f>COUNTIF(C6:AG6,"振/夕")</f>
         <v>0</v>
       </c>
-      <c r="AQ6" s="56">
+      <c r="AQ6" s="25">
         <f>COUNTIF(C6:AG6,"日直")</f>
         <v>0</v>
       </c>
-      <c r="AR6" s="57">
+      <c r="AR6" s="26">
         <f>COUNTIF(C6:AG6,"残日")</f>
         <v>0</v>
       </c>
-      <c r="AS6" s="58">
+      <c r="AS6" s="27">
         <f>COUNTIF(C6:AG6,"早日")</f>
         <v>0</v>
       </c>
-      <c r="AT6" s="59"/>
-      <c r="AU6" s="60"/>
-      <c r="AV6" s="61"/>
-      <c r="AW6" s="62"/>
-      <c r="AX6" s="63"/>
-      <c r="AY6" s="63"/>
-      <c r="AZ6" s="63"/>
-      <c r="BA6" s="63"/>
-      <c r="BB6" s="63"/>
-      <c r="BC6" s="63"/>
-      <c r="BD6" s="63"/>
-      <c r="BE6" s="63"/>
-      <c r="BF6" s="63"/>
-      <c r="BG6" s="63"/>
-      <c r="BH6" s="63"/>
-      <c r="BI6" s="63"/>
-      <c r="BJ6" s="63"/>
-      <c r="BK6" s="64"/>
-      <c r="BL6" s="63"/>
-      <c r="BM6" s="63"/>
-      <c r="BN6" s="63"/>
-      <c r="BO6" s="63"/>
-      <c r="BP6" s="59"/>
-      <c r="BQ6" s="59"/>
-      <c r="BR6" s="59"/>
-      <c r="BS6" s="59"/>
-      <c r="BT6" s="59"/>
-      <c r="BU6" s="65"/>
+      <c r="AT6" s="28"/>
+      <c r="AU6" s="29"/>
+      <c r="AV6" s="30"/>
+      <c r="AW6" s="31"/>
+      <c r="AX6" s="32"/>
+      <c r="AY6" s="32"/>
+      <c r="AZ6" s="32"/>
+      <c r="BA6" s="32"/>
+      <c r="BB6" s="32"/>
+      <c r="BC6" s="32"/>
+      <c r="BD6" s="32"/>
+      <c r="BE6" s="32"/>
+      <c r="BF6" s="32"/>
+      <c r="BG6" s="32"/>
+      <c r="BH6" s="32"/>
+      <c r="BI6" s="32"/>
+      <c r="BJ6" s="32"/>
+      <c r="BK6" s="33"/>
+      <c r="BL6" s="32"/>
+      <c r="BM6" s="32"/>
+      <c r="BN6" s="32"/>
+      <c r="BO6" s="32"/>
+      <c r="BP6" s="28"/>
+      <c r="BQ6" s="28"/>
+      <c r="BR6" s="28"/>
+      <c r="BS6" s="28"/>
+      <c r="BT6" s="28"/>
+      <c r="BU6" s="34"/>
     </row>
     <row r="7" spans="1:73" ht="30" customHeight="1">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="176" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="49"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="49"/>
-      <c r="AG7" s="49"/>
-      <c r="AH7" s="50">
+      <c r="B7" s="174"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI7" s="51">
+      <c r="AI7" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ7" s="52">
+      <c r="AJ7" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AK7" s="53">
+      <c r="AK7" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AL7" s="54">
+      <c r="AL7" s="23">
         <f t="shared" ref="AL7:AL21" si="6">COUNTIFS(C7:AG7,"夜")-(AM7)</f>
         <v>0</v>
       </c>
-      <c r="AM7" s="51">
+      <c r="AM7" s="14">
         <f t="shared" ref="AM7:AM21" si="7">COUNTIFS(C7:AG7,"夜",$C$5:$AG$5,"水")</f>
         <v>0</v>
       </c>
-      <c r="AN7" s="55">
+      <c r="AN7" s="24">
         <f t="shared" ref="AN7:AN20" si="8">COUNTIF(C7:AG7,"残")</f>
         <v>0</v>
       </c>
-      <c r="AO7" s="55">
+      <c r="AO7" s="24">
         <f t="shared" ref="AO7:AO21" si="9">COUNTIF(C7:AG7,"早")</f>
         <v>0</v>
       </c>
-      <c r="AP7" s="55">
+      <c r="AP7" s="24">
         <f t="shared" ref="AP7:AP21" si="10">COUNTIF(C7:AG7,"振/夕")</f>
         <v>0</v>
       </c>
-      <c r="AQ7" s="56">
+      <c r="AQ7" s="25">
         <f>COUNTIF(C7:AG7,"日直")</f>
         <v>0</v>
       </c>
-      <c r="AR7" s="51">
+      <c r="AR7" s="14">
         <f>COUNTIF(C7:AG7,"残日")</f>
         <v>0</v>
       </c>
-      <c r="AS7" s="58">
+      <c r="AS7" s="27">
         <f>COUNTIF(C7:AG7,"早日")</f>
         <v>0</v>
       </c>
-      <c r="AT7" s="63"/>
-      <c r="AU7" s="60"/>
-      <c r="AV7" s="61"/>
-      <c r="AW7" s="62"/>
-      <c r="AX7" s="63"/>
-      <c r="AY7" s="63"/>
-      <c r="AZ7" s="63"/>
-      <c r="BA7" s="63"/>
-      <c r="BB7" s="63"/>
-      <c r="BC7" s="63"/>
-      <c r="BD7" s="63"/>
-      <c r="BE7" s="63"/>
-      <c r="BF7" s="63"/>
-      <c r="BG7" s="63"/>
-      <c r="BH7" s="63"/>
-      <c r="BI7" s="63"/>
-      <c r="BJ7" s="63"/>
-      <c r="BK7" s="64"/>
-      <c r="BL7" s="63"/>
-      <c r="BM7" s="63"/>
-      <c r="BN7" s="63"/>
-      <c r="BO7" s="63"/>
-      <c r="BP7" s="59"/>
-      <c r="BQ7" s="59"/>
-      <c r="BR7" s="59"/>
-      <c r="BS7" s="59"/>
-      <c r="BT7" s="59"/>
-      <c r="BU7" s="67"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="29"/>
+      <c r="AV7" s="30"/>
+      <c r="AW7" s="31"/>
+      <c r="AX7" s="32"/>
+      <c r="AY7" s="32"/>
+      <c r="AZ7" s="32"/>
+      <c r="BA7" s="32"/>
+      <c r="BB7" s="32"/>
+      <c r="BC7" s="32"/>
+      <c r="BD7" s="32"/>
+      <c r="BE7" s="32"/>
+      <c r="BF7" s="32"/>
+      <c r="BG7" s="32"/>
+      <c r="BH7" s="32"/>
+      <c r="BI7" s="32"/>
+      <c r="BJ7" s="32"/>
+      <c r="BK7" s="33"/>
+      <c r="BL7" s="32"/>
+      <c r="BM7" s="32"/>
+      <c r="BN7" s="32"/>
+      <c r="BO7" s="32"/>
+      <c r="BP7" s="28"/>
+      <c r="BQ7" s="28"/>
+      <c r="BR7" s="28"/>
+      <c r="BS7" s="28"/>
+      <c r="BT7" s="28"/>
+      <c r="BU7" s="35"/>
     </row>
     <row r="8" spans="1:73" ht="30" customHeight="1">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="176" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="49"/>
-      <c r="AG8" s="49"/>
-      <c r="AH8" s="50">
+      <c r="B8" s="174"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI8" s="51">
+      <c r="AI8" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ8" s="52">
+      <c r="AJ8" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AK8" s="53">
+      <c r="AK8" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AL8" s="54">
+      <c r="AL8" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AM8" s="51">
+      <c r="AM8" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN8" s="55">
+      <c r="AN8" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AO8" s="55">
+      <c r="AO8" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AP8" s="55">
+      <c r="AP8" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AQ8" s="56">
+      <c r="AQ8" s="25">
         <f t="shared" ref="AQ8:AQ21" si="11">COUNTIF(C8:AG8,"日直")</f>
         <v>0</v>
       </c>
-      <c r="AR8" s="51">
+      <c r="AR8" s="14">
         <f t="shared" ref="AR8:AR14" si="12">COUNTIF(C8:AG8,"残日")</f>
         <v>0</v>
       </c>
-      <c r="AS8" s="58">
+      <c r="AS8" s="27">
         <f t="shared" ref="AS8:AS20" si="13">COUNTIF(C8:AG8,"早日")</f>
         <v>0</v>
       </c>
-      <c r="AT8" s="63"/>
-      <c r="AU8" s="60"/>
-      <c r="AV8" s="61"/>
-      <c r="AW8" s="62"/>
-      <c r="AX8" s="63"/>
-      <c r="AY8" s="63"/>
-      <c r="AZ8" s="63"/>
-      <c r="BA8" s="63"/>
-      <c r="BB8" s="63"/>
-      <c r="BC8" s="63"/>
-      <c r="BD8" s="63"/>
-      <c r="BE8" s="63"/>
-      <c r="BF8" s="63"/>
-      <c r="BG8" s="63"/>
-      <c r="BH8" s="63"/>
-      <c r="BI8" s="63"/>
-      <c r="BJ8" s="63"/>
-      <c r="BK8" s="64"/>
-      <c r="BL8" s="63"/>
-      <c r="BM8" s="63"/>
-      <c r="BN8" s="63"/>
-      <c r="BO8" s="63"/>
-      <c r="BP8" s="59"/>
-      <c r="BQ8" s="59"/>
-      <c r="BR8" s="59"/>
-      <c r="BS8" s="59"/>
-      <c r="BT8" s="59"/>
-      <c r="BU8" s="67"/>
+      <c r="AT8" s="32"/>
+      <c r="AU8" s="29"/>
+      <c r="AV8" s="30"/>
+      <c r="AW8" s="31"/>
+      <c r="AX8" s="32"/>
+      <c r="AY8" s="32"/>
+      <c r="AZ8" s="32"/>
+      <c r="BA8" s="32"/>
+      <c r="BB8" s="32"/>
+      <c r="BC8" s="32"/>
+      <c r="BD8" s="32"/>
+      <c r="BE8" s="32"/>
+      <c r="BF8" s="32"/>
+      <c r="BG8" s="32"/>
+      <c r="BH8" s="32"/>
+      <c r="BI8" s="32"/>
+      <c r="BJ8" s="32"/>
+      <c r="BK8" s="33"/>
+      <c r="BL8" s="32"/>
+      <c r="BM8" s="32"/>
+      <c r="BN8" s="32"/>
+      <c r="BO8" s="32"/>
+      <c r="BP8" s="28"/>
+      <c r="BQ8" s="28"/>
+      <c r="BR8" s="28"/>
+      <c r="BS8" s="28"/>
+      <c r="BT8" s="28"/>
+      <c r="BU8" s="35"/>
     </row>
     <row r="9" spans="1:73" ht="30" customHeight="1">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="49"/>
-      <c r="AC9" s="49"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="49"/>
-      <c r="AF9" s="49"/>
-      <c r="AG9" s="49"/>
-      <c r="AH9" s="50">
+      <c r="B9" s="174"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI9" s="51">
+      <c r="AI9" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ9" s="52">
+      <c r="AJ9" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AK9" s="53">
+      <c r="AK9" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AL9" s="54">
+      <c r="AL9" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AM9" s="51">
+      <c r="AM9" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN9" s="55">
+      <c r="AN9" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AO9" s="55">
+      <c r="AO9" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AP9" s="55">
+      <c r="AP9" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AQ9" s="56">
+      <c r="AQ9" s="25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AR9" s="51">
+      <c r="AR9" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AS9" s="58">
+      <c r="AS9" s="27">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AT9" s="63"/>
-      <c r="AU9" s="60"/>
-      <c r="AV9" s="61"/>
-      <c r="AW9" s="62"/>
-      <c r="AX9" s="63"/>
-      <c r="AY9" s="63"/>
-      <c r="AZ9" s="63"/>
-      <c r="BA9" s="63"/>
-      <c r="BB9" s="63"/>
-      <c r="BC9" s="63"/>
-      <c r="BD9" s="63"/>
-      <c r="BE9" s="63"/>
-      <c r="BF9" s="63"/>
-      <c r="BG9" s="63"/>
-      <c r="BH9" s="63"/>
-      <c r="BI9" s="63"/>
-      <c r="BJ9" s="63"/>
-      <c r="BK9" s="64"/>
-      <c r="BL9" s="63"/>
-      <c r="BM9" s="63"/>
-      <c r="BN9" s="63"/>
-      <c r="BO9" s="63"/>
-      <c r="BP9" s="59"/>
-      <c r="BQ9" s="59"/>
-      <c r="BR9" s="59"/>
-      <c r="BS9" s="59"/>
-      <c r="BT9" s="59"/>
-      <c r="BU9" s="63"/>
+      <c r="AT9" s="32"/>
+      <c r="AU9" s="29"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="31"/>
+      <c r="AX9" s="32"/>
+      <c r="AY9" s="32"/>
+      <c r="AZ9" s="32"/>
+      <c r="BA9" s="32"/>
+      <c r="BB9" s="32"/>
+      <c r="BC9" s="32"/>
+      <c r="BD9" s="32"/>
+      <c r="BE9" s="32"/>
+      <c r="BF9" s="32"/>
+      <c r="BG9" s="32"/>
+      <c r="BH9" s="32"/>
+      <c r="BI9" s="32"/>
+      <c r="BJ9" s="32"/>
+      <c r="BK9" s="33"/>
+      <c r="BL9" s="32"/>
+      <c r="BM9" s="32"/>
+      <c r="BN9" s="32"/>
+      <c r="BO9" s="32"/>
+      <c r="BP9" s="28"/>
+      <c r="BQ9" s="28"/>
+      <c r="BR9" s="28"/>
+      <c r="BS9" s="28"/>
+      <c r="BT9" s="28"/>
+      <c r="BU9" s="32"/>
     </row>
     <row r="10" spans="1:73" ht="30" customHeight="1">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="176" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="49"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="49"/>
-      <c r="AF10" s="49"/>
-      <c r="AG10" s="49"/>
-      <c r="AH10" s="50">
+      <c r="B10" s="174"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI10" s="51">
+      <c r="AI10" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ10" s="52">
+      <c r="AJ10" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AK10" s="53">
+      <c r="AK10" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AL10" s="54">
+      <c r="AL10" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AM10" s="51">
+      <c r="AM10" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN10" s="55">
+      <c r="AN10" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AO10" s="55">
+      <c r="AO10" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AP10" s="55">
+      <c r="AP10" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AQ10" s="56">
+      <c r="AQ10" s="25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AR10" s="51">
+      <c r="AR10" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AS10" s="58">
+      <c r="AS10" s="27">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AT10" s="63"/>
-      <c r="AU10" s="60"/>
-      <c r="AV10" s="61"/>
-      <c r="AW10" s="62"/>
-      <c r="AX10" s="63"/>
-      <c r="AY10" s="63"/>
-      <c r="AZ10" s="63"/>
-      <c r="BA10" s="63"/>
-      <c r="BB10" s="63"/>
-      <c r="BC10" s="63"/>
-      <c r="BD10" s="63"/>
-      <c r="BE10" s="63"/>
-      <c r="BF10" s="63"/>
-      <c r="BG10" s="63"/>
-      <c r="BH10" s="63"/>
-      <c r="BI10" s="63"/>
-      <c r="BJ10" s="63"/>
-      <c r="BK10" s="64"/>
-      <c r="BL10" s="63"/>
-      <c r="BM10" s="63"/>
-      <c r="BN10" s="63"/>
-      <c r="BO10" s="63"/>
-      <c r="BP10" s="59"/>
-      <c r="BQ10" s="59"/>
-      <c r="BR10" s="59"/>
-      <c r="BS10" s="59"/>
-      <c r="BT10" s="59"/>
-      <c r="BU10" s="67"/>
+      <c r="AT10" s="32"/>
+      <c r="AU10" s="29"/>
+      <c r="AV10" s="30"/>
+      <c r="AW10" s="31"/>
+      <c r="AX10" s="32"/>
+      <c r="AY10" s="32"/>
+      <c r="AZ10" s="32"/>
+      <c r="BA10" s="32"/>
+      <c r="BB10" s="32"/>
+      <c r="BC10" s="32"/>
+      <c r="BD10" s="32"/>
+      <c r="BE10" s="32"/>
+      <c r="BF10" s="32"/>
+      <c r="BG10" s="32"/>
+      <c r="BH10" s="32"/>
+      <c r="BI10" s="32"/>
+      <c r="BJ10" s="32"/>
+      <c r="BK10" s="33"/>
+      <c r="BL10" s="32"/>
+      <c r="BM10" s="32"/>
+      <c r="BN10" s="32"/>
+      <c r="BO10" s="32"/>
+      <c r="BP10" s="28"/>
+      <c r="BQ10" s="28"/>
+      <c r="BR10" s="28"/>
+      <c r="BS10" s="28"/>
+      <c r="BT10" s="28"/>
+      <c r="BU10" s="35"/>
     </row>
     <row r="11" spans="1:73" ht="30" customHeight="1">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="177" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="49"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="49"/>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="49"/>
-      <c r="AF11" s="49"/>
-      <c r="AG11" s="49"/>
-      <c r="AH11" s="50">
+      <c r="B11" s="178"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI11" s="51">
+      <c r="AI11" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ11" s="52">
+      <c r="AJ11" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AK11" s="53">
+      <c r="AK11" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AL11" s="54">
+      <c r="AL11" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AM11" s="51">
+      <c r="AM11" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN11" s="55">
+      <c r="AN11" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AO11" s="55">
+      <c r="AO11" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AP11" s="55">
+      <c r="AP11" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AQ11" s="56">
+      <c r="AQ11" s="25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AR11" s="51">
+      <c r="AR11" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AS11" s="58">
+      <c r="AS11" s="27">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AT11" s="63"/>
-      <c r="AU11" s="60"/>
-      <c r="AV11" s="61"/>
-      <c r="AW11" s="62"/>
-      <c r="AX11" s="63"/>
-      <c r="AY11" s="63"/>
-      <c r="AZ11" s="63"/>
-      <c r="BA11" s="63"/>
-      <c r="BB11" s="63"/>
-      <c r="BC11" s="63"/>
-      <c r="BD11" s="63"/>
-      <c r="BE11" s="63"/>
-      <c r="BF11" s="63"/>
-      <c r="BG11" s="63"/>
-      <c r="BH11" s="63"/>
-      <c r="BI11" s="63"/>
-      <c r="BJ11" s="63"/>
-      <c r="BK11" s="64"/>
-      <c r="BL11" s="63"/>
-      <c r="BM11" s="63"/>
-      <c r="BN11" s="63"/>
-      <c r="BO11" s="63"/>
-      <c r="BP11" s="59"/>
-      <c r="BQ11" s="59"/>
-      <c r="BR11" s="59"/>
-      <c r="BS11" s="59"/>
-      <c r="BT11" s="59"/>
-      <c r="BU11" s="67"/>
+      <c r="AT11" s="32"/>
+      <c r="AU11" s="29"/>
+      <c r="AV11" s="30"/>
+      <c r="AW11" s="31"/>
+      <c r="AX11" s="32"/>
+      <c r="AY11" s="32"/>
+      <c r="AZ11" s="32"/>
+      <c r="BA11" s="32"/>
+      <c r="BB11" s="32"/>
+      <c r="BC11" s="32"/>
+      <c r="BD11" s="32"/>
+      <c r="BE11" s="32"/>
+      <c r="BF11" s="32"/>
+      <c r="BG11" s="32"/>
+      <c r="BH11" s="32"/>
+      <c r="BI11" s="32"/>
+      <c r="BJ11" s="32"/>
+      <c r="BK11" s="33"/>
+      <c r="BL11" s="32"/>
+      <c r="BM11" s="32"/>
+      <c r="BN11" s="32"/>
+      <c r="BO11" s="32"/>
+      <c r="BP11" s="28"/>
+      <c r="BQ11" s="28"/>
+      <c r="BR11" s="28"/>
+      <c r="BS11" s="28"/>
+      <c r="BT11" s="28"/>
+      <c r="BU11" s="35"/>
     </row>
     <row r="12" spans="1:73" ht="30" customHeight="1">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="177" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="49"/>
-      <c r="AC12" s="49"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="49"/>
-      <c r="AF12" s="49"/>
-      <c r="AG12" s="49"/>
-      <c r="AH12" s="50">
+      <c r="B12" s="178"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI12" s="51">
+      <c r="AI12" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ12" s="52">
+      <c r="AJ12" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AK12" s="53">
+      <c r="AK12" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AL12" s="54">
+      <c r="AL12" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AM12" s="51">
+      <c r="AM12" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN12" s="55">
+      <c r="AN12" s="24">
         <f>COUNTIF(C12:AG12,"残")</f>
         <v>0</v>
       </c>
-      <c r="AO12" s="55">
+      <c r="AO12" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AP12" s="55">
+      <c r="AP12" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AQ12" s="56">
+      <c r="AQ12" s="25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AR12" s="51">
+      <c r="AR12" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AS12" s="58">
+      <c r="AS12" s="27">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AT12" s="59"/>
-      <c r="AU12" s="60"/>
-      <c r="AV12" s="61"/>
-      <c r="AW12" s="62"/>
-      <c r="AX12" s="63"/>
-      <c r="AY12" s="63"/>
-      <c r="AZ12" s="63"/>
-      <c r="BA12" s="63"/>
-      <c r="BB12" s="63"/>
-      <c r="BC12" s="63"/>
-      <c r="BD12" s="63"/>
-      <c r="BE12" s="63"/>
-      <c r="BF12" s="63"/>
-      <c r="BG12" s="63"/>
-      <c r="BH12" s="63"/>
-      <c r="BI12" s="63"/>
-      <c r="BJ12" s="63"/>
-      <c r="BK12" s="64"/>
-      <c r="BL12" s="63"/>
-      <c r="BM12" s="63"/>
-      <c r="BN12" s="63"/>
-      <c r="BO12" s="63"/>
-      <c r="BP12" s="59"/>
-      <c r="BQ12" s="59"/>
-      <c r="BR12" s="59"/>
-      <c r="BS12" s="59"/>
-      <c r="BT12" s="59"/>
-      <c r="BU12" s="59"/>
+      <c r="AT12" s="28"/>
+      <c r="AU12" s="29"/>
+      <c r="AV12" s="30"/>
+      <c r="AW12" s="31"/>
+      <c r="AX12" s="32"/>
+      <c r="AY12" s="32"/>
+      <c r="AZ12" s="32"/>
+      <c r="BA12" s="32"/>
+      <c r="BB12" s="32"/>
+      <c r="BC12" s="32"/>
+      <c r="BD12" s="32"/>
+      <c r="BE12" s="32"/>
+      <c r="BF12" s="32"/>
+      <c r="BG12" s="32"/>
+      <c r="BH12" s="32"/>
+      <c r="BI12" s="32"/>
+      <c r="BJ12" s="32"/>
+      <c r="BK12" s="33"/>
+      <c r="BL12" s="32"/>
+      <c r="BM12" s="32"/>
+      <c r="BN12" s="32"/>
+      <c r="BO12" s="32"/>
+      <c r="BP12" s="28"/>
+      <c r="BQ12" s="28"/>
+      <c r="BR12" s="28"/>
+      <c r="BS12" s="28"/>
+      <c r="BT12" s="28"/>
+      <c r="BU12" s="28"/>
     </row>
     <row r="13" spans="1:73" ht="30" customHeight="1">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="49"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="49"/>
-      <c r="AH13" s="50">
+      <c r="B13" s="178"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI13" s="51">
+      <c r="AI13" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ13" s="52">
+      <c r="AJ13" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AK13" s="53">
+      <c r="AK13" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AL13" s="54">
+      <c r="AL13" s="23">
         <f>COUNTIFS(C13:AG13,"夜")-(AM13)</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="51">
+      <c r="AM13" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN13" s="55">
+      <c r="AN13" s="24">
         <f>COUNTIF(C13:AG13,"残")</f>
         <v>0</v>
       </c>
-      <c r="AO13" s="55">
+      <c r="AO13" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AP13" s="55">
+      <c r="AP13" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AQ13" s="56">
+      <c r="AQ13" s="25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AR13" s="51">
+      <c r="AR13" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AS13" s="58">
+      <c r="AS13" s="27">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AT13" s="59"/>
-      <c r="AU13" s="60"/>
-      <c r="AV13" s="61"/>
-      <c r="AW13" s="62"/>
-      <c r="AX13" s="63"/>
-      <c r="AY13" s="63"/>
-      <c r="AZ13" s="63"/>
-      <c r="BA13" s="63"/>
-      <c r="BB13" s="63"/>
-      <c r="BC13" s="63"/>
-      <c r="BD13" s="63"/>
-      <c r="BE13" s="63"/>
-      <c r="BF13" s="63"/>
-      <c r="BG13" s="63"/>
-      <c r="BH13" s="63"/>
-      <c r="BI13" s="63"/>
-      <c r="BJ13" s="63"/>
-      <c r="BK13" s="64"/>
-      <c r="BL13" s="63"/>
-      <c r="BM13" s="63"/>
-      <c r="BN13" s="63"/>
-      <c r="BO13" s="63"/>
-      <c r="BP13" s="59"/>
-      <c r="BQ13" s="59"/>
-      <c r="BR13" s="59"/>
-      <c r="BS13" s="59"/>
-      <c r="BT13" s="59"/>
-      <c r="BU13" s="59"/>
+      <c r="AT13" s="28"/>
+      <c r="AU13" s="29"/>
+      <c r="AV13" s="30"/>
+      <c r="AW13" s="31"/>
+      <c r="AX13" s="32"/>
+      <c r="AY13" s="32"/>
+      <c r="AZ13" s="32"/>
+      <c r="BA13" s="32"/>
+      <c r="BB13" s="32"/>
+      <c r="BC13" s="32"/>
+      <c r="BD13" s="32"/>
+      <c r="BE13" s="32"/>
+      <c r="BF13" s="32"/>
+      <c r="BG13" s="32"/>
+      <c r="BH13" s="32"/>
+      <c r="BI13" s="32"/>
+      <c r="BJ13" s="32"/>
+      <c r="BK13" s="33"/>
+      <c r="BL13" s="32"/>
+      <c r="BM13" s="32"/>
+      <c r="BN13" s="32"/>
+      <c r="BO13" s="32"/>
+      <c r="BP13" s="28"/>
+      <c r="BQ13" s="28"/>
+      <c r="BR13" s="28"/>
+      <c r="BS13" s="28"/>
+      <c r="BT13" s="28"/>
+      <c r="BU13" s="28"/>
     </row>
     <row r="14" spans="1:73" ht="30" customHeight="1">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="179" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="71"/>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="71"/>
-      <c r="AB14" s="71"/>
-      <c r="AC14" s="71"/>
-      <c r="AD14" s="71"/>
-      <c r="AE14" s="71"/>
-      <c r="AF14" s="71"/>
-      <c r="AG14" s="71"/>
-      <c r="AH14" s="50">
+      <c r="B14" s="179"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="36"/>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI14" s="51">
+      <c r="AI14" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ14" s="52">
+      <c r="AJ14" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AK14" s="53">
+      <c r="AK14" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AL14" s="54">
+      <c r="AL14" s="23">
         <f>COUNTIFS(C14:AG14,"夜")-(AM14)</f>
         <v>0</v>
       </c>
-      <c r="AM14" s="51">
+      <c r="AM14" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN14" s="55">
+      <c r="AN14" s="24">
         <f t="shared" ref="AN14" si="14">COUNTIF(C14:AG14,"残")</f>
         <v>0</v>
       </c>
-      <c r="AO14" s="55">
+      <c r="AO14" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AP14" s="55">
+      <c r="AP14" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AQ14" s="56">
+      <c r="AQ14" s="25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AR14" s="51">
+      <c r="AR14" s="14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AS14" s="58">
+      <c r="AS14" s="27">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AT14" s="59"/>
-      <c r="AU14" s="60"/>
-      <c r="AV14" s="61"/>
-      <c r="AW14" s="62"/>
-      <c r="AX14" s="63"/>
-      <c r="AY14" s="63"/>
-      <c r="AZ14" s="63"/>
-      <c r="BA14" s="63"/>
-      <c r="BB14" s="63"/>
-      <c r="BC14" s="63"/>
-      <c r="BD14" s="63"/>
-      <c r="BE14" s="63"/>
-      <c r="BF14" s="63"/>
-      <c r="BG14" s="63"/>
-      <c r="BH14" s="63"/>
-      <c r="BI14" s="63"/>
-      <c r="BJ14" s="63"/>
-      <c r="BK14" s="64"/>
-      <c r="BL14" s="63"/>
-      <c r="BM14" s="63"/>
-      <c r="BN14" s="63"/>
-      <c r="BO14" s="63"/>
-      <c r="BP14" s="59"/>
-      <c r="BQ14" s="59"/>
-      <c r="BR14" s="59"/>
-      <c r="BS14" s="59"/>
-      <c r="BT14" s="59"/>
-      <c r="BU14" s="59"/>
+      <c r="AT14" s="28"/>
+      <c r="AU14" s="29"/>
+      <c r="AV14" s="30"/>
+      <c r="AW14" s="31"/>
+      <c r="AX14" s="32"/>
+      <c r="AY14" s="32"/>
+      <c r="AZ14" s="32"/>
+      <c r="BA14" s="32"/>
+      <c r="BB14" s="32"/>
+      <c r="BC14" s="32"/>
+      <c r="BD14" s="32"/>
+      <c r="BE14" s="32"/>
+      <c r="BF14" s="32"/>
+      <c r="BG14" s="32"/>
+      <c r="BH14" s="32"/>
+      <c r="BI14" s="32"/>
+      <c r="BJ14" s="32"/>
+      <c r="BK14" s="33"/>
+      <c r="BL14" s="32"/>
+      <c r="BM14" s="32"/>
+      <c r="BN14" s="32"/>
+      <c r="BO14" s="32"/>
+      <c r="BP14" s="28"/>
+      <c r="BQ14" s="28"/>
+      <c r="BR14" s="28"/>
+      <c r="BS14" s="28"/>
+      <c r="BT14" s="28"/>
+      <c r="BU14" s="28"/>
     </row>
     <row r="15" spans="1:73" ht="30" customHeight="1" thickBot="1">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="71"/>
-      <c r="AA15" s="71"/>
-      <c r="AB15" s="71"/>
-      <c r="AC15" s="71"/>
-      <c r="AD15" s="71"/>
-      <c r="AE15" s="71"/>
-      <c r="AF15" s="71"/>
-      <c r="AG15" s="71"/>
-      <c r="AH15" s="74">
+      <c r="B15" s="181"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI15" s="75">
+      <c r="AI15" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ15" s="76">
+      <c r="AJ15" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AK15" s="77">
+      <c r="AK15" s="40">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AL15" s="78">
+      <c r="AL15" s="41">
         <f>COUNTIFS(C15:AG15,"夜")-(AM15)</f>
         <v>0</v>
       </c>
-      <c r="AM15" s="75">
+      <c r="AM15" s="38">
         <f>COUNTIFS(C15:AG15,"夜",$C$5:$AG$5,"水")</f>
         <v>0</v>
       </c>
-      <c r="AN15" s="75">
+      <c r="AN15" s="38">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AO15" s="75">
+      <c r="AO15" s="38">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AP15" s="75">
+      <c r="AP15" s="38">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AQ15" s="79">
+      <c r="AQ15" s="42">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AR15" s="75">
+      <c r="AR15" s="38">
         <f>COUNTIF(C15:AG15,"残日")</f>
         <v>0</v>
       </c>
-      <c r="AS15" s="79">
+      <c r="AS15" s="42">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AT15" s="63"/>
-      <c r="AU15" s="60"/>
-      <c r="AV15" s="61"/>
-      <c r="AW15" s="62"/>
-      <c r="AX15" s="63"/>
-      <c r="AY15" s="63"/>
-      <c r="AZ15" s="63"/>
-      <c r="BA15" s="63"/>
-      <c r="BB15" s="63"/>
-      <c r="BC15" s="63"/>
-      <c r="BD15" s="63"/>
-      <c r="BE15" s="63"/>
-      <c r="BF15" s="63"/>
-      <c r="BG15" s="63"/>
-      <c r="BH15" s="63"/>
-      <c r="BI15" s="63"/>
-      <c r="BJ15" s="63"/>
-      <c r="BK15" s="64"/>
-      <c r="BL15" s="63"/>
-      <c r="BM15" s="63"/>
-      <c r="BN15" s="63"/>
-      <c r="BO15" s="63"/>
-      <c r="BP15" s="59"/>
-      <c r="BQ15" s="59"/>
-      <c r="BR15" s="59"/>
-      <c r="BS15" s="4"/>
-      <c r="BT15" s="59"/>
-      <c r="BU15" s="63"/>
+      <c r="AT15" s="32"/>
+      <c r="AU15" s="29"/>
+      <c r="AV15" s="30"/>
+      <c r="AW15" s="31"/>
+      <c r="AX15" s="32"/>
+      <c r="AY15" s="32"/>
+      <c r="AZ15" s="32"/>
+      <c r="BA15" s="32"/>
+      <c r="BB15" s="32"/>
+      <c r="BC15" s="32"/>
+      <c r="BD15" s="32"/>
+      <c r="BE15" s="32"/>
+      <c r="BF15" s="32"/>
+      <c r="BG15" s="32"/>
+      <c r="BH15" s="32"/>
+      <c r="BI15" s="32"/>
+      <c r="BJ15" s="32"/>
+      <c r="BK15" s="33"/>
+      <c r="BL15" s="32"/>
+      <c r="BM15" s="32"/>
+      <c r="BN15" s="32"/>
+      <c r="BO15" s="32"/>
+      <c r="BP15" s="28"/>
+      <c r="BQ15" s="28"/>
+      <c r="BR15" s="28"/>
+      <c r="BS15" s="2"/>
+      <c r="BT15" s="28"/>
+      <c r="BU15" s="32"/>
     </row>
     <row r="16" spans="1:73" ht="30" customHeight="1" thickTop="1">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="82"/>
-      <c r="U16" s="82"/>
-      <c r="V16" s="82"/>
-      <c r="W16" s="82"/>
-      <c r="X16" s="82"/>
-      <c r="Y16" s="82"/>
-      <c r="Z16" s="82"/>
-      <c r="AA16" s="82"/>
-      <c r="AB16" s="82"/>
-      <c r="AC16" s="82"/>
-      <c r="AD16" s="82"/>
-      <c r="AE16" s="82"/>
-      <c r="AF16" s="82"/>
-      <c r="AG16" s="82"/>
-      <c r="AH16" s="50">
+      <c r="B16" s="172"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="43"/>
+      <c r="AC16" s="43"/>
+      <c r="AD16" s="43"/>
+      <c r="AE16" s="43"/>
+      <c r="AF16" s="43"/>
+      <c r="AG16" s="43"/>
+      <c r="AH16" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI16" s="51">
+      <c r="AI16" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ16" s="52">
+      <c r="AJ16" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AK16" s="53">
+      <c r="AK16" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AL16" s="54">
+      <c r="AL16" s="23">
         <f>COUNTIFS(C16:AG16,"夜")-(AM16)</f>
         <v>0</v>
       </c>
-      <c r="AM16" s="51">
+      <c r="AM16" s="14">
         <f t="shared" ref="AM16" si="15">COUNTIFS(C16:AG16,"夜",$C$5:$AG$5,"水")</f>
         <v>0</v>
       </c>
-      <c r="AN16" s="55">
+      <c r="AN16" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AO16" s="55">
+      <c r="AO16" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AP16" s="55">
+      <c r="AP16" s="24">
         <f>COUNTIF(C16:AG16,"振/夕")</f>
         <v>0</v>
       </c>
-      <c r="AQ16" s="56">
+      <c r="AQ16" s="25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AR16" s="83">
+      <c r="AR16" s="44">
         <f>COUNTIF(C16:AG16,"残日")</f>
         <v>0</v>
       </c>
-      <c r="AS16" s="84">
+      <c r="AS16" s="45">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AT16" s="59"/>
-      <c r="AU16" s="60"/>
-      <c r="AV16" s="61"/>
-      <c r="AW16" s="62"/>
-      <c r="AX16" s="63"/>
-      <c r="AY16" s="63"/>
-      <c r="AZ16" s="63"/>
-      <c r="BA16" s="63"/>
-      <c r="BB16" s="63"/>
-      <c r="BC16" s="63"/>
-      <c r="BD16" s="63"/>
-      <c r="BE16" s="63"/>
-      <c r="BF16" s="63"/>
-      <c r="BG16" s="63"/>
-      <c r="BH16" s="63"/>
-      <c r="BI16" s="63"/>
-      <c r="BJ16" s="63"/>
-      <c r="BK16" s="64"/>
-      <c r="BL16" s="63"/>
-      <c r="BM16" s="63"/>
-      <c r="BN16" s="63"/>
-      <c r="BO16" s="63"/>
-      <c r="BP16" s="59"/>
-      <c r="BQ16" s="59"/>
-      <c r="BR16" s="59"/>
-      <c r="BS16" s="59"/>
-      <c r="BT16" s="59"/>
-      <c r="BU16" s="59"/>
+      <c r="AT16" s="28"/>
+      <c r="AU16" s="29"/>
+      <c r="AV16" s="30"/>
+      <c r="AW16" s="31"/>
+      <c r="AX16" s="32"/>
+      <c r="AY16" s="32"/>
+      <c r="AZ16" s="32"/>
+      <c r="BA16" s="32"/>
+      <c r="BB16" s="32"/>
+      <c r="BC16" s="32"/>
+      <c r="BD16" s="32"/>
+      <c r="BE16" s="32"/>
+      <c r="BF16" s="32"/>
+      <c r="BG16" s="32"/>
+      <c r="BH16" s="32"/>
+      <c r="BI16" s="32"/>
+      <c r="BJ16" s="32"/>
+      <c r="BK16" s="33"/>
+      <c r="BL16" s="32"/>
+      <c r="BM16" s="32"/>
+      <c r="BN16" s="32"/>
+      <c r="BO16" s="32"/>
+      <c r="BP16" s="28"/>
+      <c r="BQ16" s="28"/>
+      <c r="BR16" s="28"/>
+      <c r="BS16" s="28"/>
+      <c r="BT16" s="28"/>
+      <c r="BU16" s="28"/>
     </row>
     <row r="17" spans="1:73" ht="30" customHeight="1">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="173" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="49"/>
-      <c r="AB17" s="49"/>
-      <c r="AC17" s="49"/>
-      <c r="AD17" s="49"/>
-      <c r="AE17" s="49"/>
-      <c r="AF17" s="49"/>
-      <c r="AG17" s="49"/>
-      <c r="AH17" s="86">
+      <c r="B17" s="174"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI17" s="55">
+      <c r="AI17" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ17" s="87">
+      <c r="AJ17" s="47">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AK17" s="88">
+      <c r="AK17" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AL17" s="54">
+      <c r="AL17" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AM17" s="55">
+      <c r="AM17" s="24">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN17" s="55">
+      <c r="AN17" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AO17" s="55">
+      <c r="AO17" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AP17" s="55">
+      <c r="AP17" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AQ17" s="56">
+      <c r="AQ17" s="25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AR17" s="55">
+      <c r="AR17" s="24">
         <f t="shared" ref="AR17:AR21" si="16">COUNTIF(C17:AG17,"残日")</f>
         <v>0</v>
       </c>
-      <c r="AS17" s="58">
+      <c r="AS17" s="27">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AT17" s="63"/>
-      <c r="AU17" s="60"/>
-      <c r="AV17" s="89"/>
-      <c r="AW17" s="62"/>
-      <c r="AX17" s="63"/>
-      <c r="AY17" s="63"/>
-      <c r="AZ17" s="63"/>
-      <c r="BA17" s="63"/>
-      <c r="BB17" s="63"/>
-      <c r="BC17" s="63"/>
-      <c r="BD17" s="63"/>
-      <c r="BE17" s="63"/>
-      <c r="BF17" s="63"/>
-      <c r="BG17" s="63"/>
-      <c r="BH17" s="63"/>
-      <c r="BI17" s="63"/>
-      <c r="BJ17" s="63"/>
-      <c r="BK17" s="64"/>
-      <c r="BL17" s="63"/>
-      <c r="BM17" s="63"/>
-      <c r="BN17" s="63"/>
-      <c r="BO17" s="63"/>
-      <c r="BP17" s="59"/>
-      <c r="BQ17" s="59"/>
-      <c r="BR17" s="59"/>
-      <c r="BS17" s="59"/>
-      <c r="BT17" s="59"/>
-      <c r="BU17" s="63"/>
+      <c r="AT17" s="32"/>
+      <c r="AU17" s="29"/>
+      <c r="AV17" s="49"/>
+      <c r="AW17" s="31"/>
+      <c r="AX17" s="32"/>
+      <c r="AY17" s="32"/>
+      <c r="AZ17" s="32"/>
+      <c r="BA17" s="32"/>
+      <c r="BB17" s="32"/>
+      <c r="BC17" s="32"/>
+      <c r="BD17" s="32"/>
+      <c r="BE17" s="32"/>
+      <c r="BF17" s="32"/>
+      <c r="BG17" s="32"/>
+      <c r="BH17" s="32"/>
+      <c r="BI17" s="32"/>
+      <c r="BJ17" s="32"/>
+      <c r="BK17" s="33"/>
+      <c r="BL17" s="32"/>
+      <c r="BM17" s="32"/>
+      <c r="BN17" s="32"/>
+      <c r="BO17" s="32"/>
+      <c r="BP17" s="28"/>
+      <c r="BQ17" s="28"/>
+      <c r="BR17" s="28"/>
+      <c r="BS17" s="28"/>
+      <c r="BT17" s="28"/>
+      <c r="BU17" s="32"/>
     </row>
     <row r="18" spans="1:73" ht="30" customHeight="1">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
-      <c r="AB18" s="49"/>
-      <c r="AC18" s="49"/>
-      <c r="AD18" s="49"/>
-      <c r="AE18" s="49"/>
-      <c r="AF18" s="49"/>
-      <c r="AG18" s="49"/>
-      <c r="AH18" s="50">
+      <c r="B18" s="174"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI18" s="51">
+      <c r="AI18" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ18" s="52">
+      <c r="AJ18" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AK18" s="53">
+      <c r="AK18" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AL18" s="54">
+      <c r="AL18" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AM18" s="51">
+      <c r="AM18" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN18" s="55">
+      <c r="AN18" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AO18" s="55">
+      <c r="AO18" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AP18" s="55">
+      <c r="AP18" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AQ18" s="56">
+      <c r="AQ18" s="25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AR18" s="55">
+      <c r="AR18" s="24">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AS18" s="58">
+      <c r="AS18" s="27">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AT18" s="59"/>
-      <c r="AU18" s="60"/>
-      <c r="AV18" s="61"/>
-      <c r="AW18" s="62"/>
-      <c r="AX18" s="63"/>
-      <c r="AY18" s="63"/>
-      <c r="AZ18" s="63"/>
-      <c r="BA18" s="63"/>
-      <c r="BB18" s="63"/>
-      <c r="BC18" s="63"/>
-      <c r="BD18" s="63"/>
-      <c r="BE18" s="63"/>
-      <c r="BF18" s="63"/>
-      <c r="BG18" s="63"/>
-      <c r="BH18" s="63"/>
-      <c r="BI18" s="63"/>
-      <c r="BJ18" s="63"/>
-      <c r="BK18" s="64"/>
-      <c r="BL18" s="63"/>
-      <c r="BM18" s="63"/>
-      <c r="BN18" s="63"/>
-      <c r="BO18" s="63"/>
-      <c r="BP18" s="59"/>
-      <c r="BQ18" s="59"/>
-      <c r="BR18" s="59"/>
-      <c r="BS18" s="59"/>
-      <c r="BT18" s="59"/>
-      <c r="BU18" s="59"/>
+      <c r="AT18" s="28"/>
+      <c r="AU18" s="29"/>
+      <c r="AV18" s="30"/>
+      <c r="AW18" s="31"/>
+      <c r="AX18" s="32"/>
+      <c r="AY18" s="32"/>
+      <c r="AZ18" s="32"/>
+      <c r="BA18" s="32"/>
+      <c r="BB18" s="32"/>
+      <c r="BC18" s="32"/>
+      <c r="BD18" s="32"/>
+      <c r="BE18" s="32"/>
+      <c r="BF18" s="32"/>
+      <c r="BG18" s="32"/>
+      <c r="BH18" s="32"/>
+      <c r="BI18" s="32"/>
+      <c r="BJ18" s="32"/>
+      <c r="BK18" s="33"/>
+      <c r="BL18" s="32"/>
+      <c r="BM18" s="32"/>
+      <c r="BN18" s="32"/>
+      <c r="BO18" s="32"/>
+      <c r="BP18" s="28"/>
+      <c r="BQ18" s="28"/>
+      <c r="BR18" s="28"/>
+      <c r="BS18" s="28"/>
+      <c r="BT18" s="28"/>
+      <c r="BU18" s="28"/>
     </row>
     <row r="19" spans="1:73" ht="30" customHeight="1">
-      <c r="A19" s="85" t="s">
+      <c r="A19" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="49"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="49"/>
-      <c r="AA19" s="49"/>
-      <c r="AB19" s="49"/>
-      <c r="AC19" s="49"/>
-      <c r="AD19" s="49"/>
-      <c r="AE19" s="49"/>
-      <c r="AF19" s="49"/>
-      <c r="AG19" s="49"/>
-      <c r="AH19" s="50">
+      <c r="B19" s="174"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI19" s="51">
+      <c r="AI19" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ19" s="52">
+      <c r="AJ19" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AK19" s="53">
+      <c r="AK19" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AL19" s="54">
+      <c r="AL19" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AM19" s="51">
+      <c r="AM19" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN19" s="55">
+      <c r="AN19" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AO19" s="55">
+      <c r="AO19" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AP19" s="55">
+      <c r="AP19" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AQ19" s="56">
+      <c r="AQ19" s="25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AR19" s="55">
+      <c r="AR19" s="24">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AS19" s="58">
+      <c r="AS19" s="27">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AT19" s="63"/>
-      <c r="AU19" s="60"/>
-      <c r="AV19" s="61"/>
-      <c r="AW19" s="62"/>
-      <c r="AX19" s="63"/>
-      <c r="AY19" s="63"/>
-      <c r="AZ19" s="63"/>
-      <c r="BA19" s="63"/>
-      <c r="BB19" s="63"/>
-      <c r="BC19" s="63"/>
-      <c r="BD19" s="63"/>
-      <c r="BE19" s="63"/>
-      <c r="BF19" s="63"/>
-      <c r="BG19" s="63"/>
-      <c r="BH19" s="63"/>
-      <c r="BI19" s="63"/>
-      <c r="BJ19" s="63"/>
-      <c r="BK19" s="64"/>
-      <c r="BL19" s="63"/>
-      <c r="BM19" s="63"/>
-      <c r="BN19" s="63"/>
-      <c r="BO19" s="63"/>
-      <c r="BP19" s="59"/>
-      <c r="BQ19" s="59"/>
-      <c r="BR19" s="59"/>
-      <c r="BS19" s="4"/>
-      <c r="BT19" s="59"/>
-      <c r="BU19" s="63"/>
+      <c r="AT19" s="32"/>
+      <c r="AU19" s="29"/>
+      <c r="AV19" s="30"/>
+      <c r="AW19" s="31"/>
+      <c r="AX19" s="32"/>
+      <c r="AY19" s="32"/>
+      <c r="AZ19" s="32"/>
+      <c r="BA19" s="32"/>
+      <c r="BB19" s="32"/>
+      <c r="BC19" s="32"/>
+      <c r="BD19" s="32"/>
+      <c r="BE19" s="32"/>
+      <c r="BF19" s="32"/>
+      <c r="BG19" s="32"/>
+      <c r="BH19" s="32"/>
+      <c r="BI19" s="32"/>
+      <c r="BJ19" s="32"/>
+      <c r="BK19" s="33"/>
+      <c r="BL19" s="32"/>
+      <c r="BM19" s="32"/>
+      <c r="BN19" s="32"/>
+      <c r="BO19" s="32"/>
+      <c r="BP19" s="28"/>
+      <c r="BQ19" s="28"/>
+      <c r="BR19" s="28"/>
+      <c r="BS19" s="2"/>
+      <c r="BT19" s="28"/>
+      <c r="BU19" s="32"/>
     </row>
     <row r="20" spans="1:73" ht="30" customHeight="1">
-      <c r="A20" s="90"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="49" t="s">
+      <c r="A20" s="175"/>
+      <c r="B20" s="175"/>
+      <c r="C20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="49" t="s">
+      <c r="E20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="49" t="s">
+      <c r="F20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="49" t="s">
+      <c r="G20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="49" t="s">
+      <c r="H20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="49" t="s">
+      <c r="I20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="49" t="s">
+      <c r="J20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="49" t="s">
+      <c r="K20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="L20" s="49" t="s">
+      <c r="L20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="M20" s="49" t="s">
+      <c r="M20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="N20" s="49" t="s">
+      <c r="N20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="O20" s="49" t="s">
+      <c r="O20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="P20" s="49" t="s">
+      <c r="P20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="Q20" s="49" t="s">
+      <c r="Q20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="R20" s="49" t="s">
+      <c r="R20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="S20" s="49" t="s">
+      <c r="S20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="T20" s="49" t="s">
+      <c r="T20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="U20" s="49" t="s">
+      <c r="U20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="V20" s="49" t="s">
+      <c r="V20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W20" s="49" t="s">
+      <c r="W20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="X20" s="49" t="s">
+      <c r="X20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="Y20" s="49" t="s">
+      <c r="Y20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="Z20" s="49" t="s">
+      <c r="Z20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AA20" s="49" t="s">
+      <c r="AA20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AB20" s="49" t="s">
+      <c r="AB20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AC20" s="49" t="s">
+      <c r="AC20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AD20" s="49" t="s">
+      <c r="AD20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AE20" s="49" t="s">
+      <c r="AE20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AF20" s="49" t="s">
+      <c r="AF20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AG20" s="49" t="s">
+      <c r="AG20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AH20" s="50">
+      <c r="AH20" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI20" s="51">
+      <c r="AI20" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ20" s="52">
+      <c r="AJ20" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AK20" s="53">
+      <c r="AK20" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AL20" s="54">
+      <c r="AL20" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AM20" s="51">
+      <c r="AM20" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN20" s="55">
+      <c r="AN20" s="24">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AO20" s="55">
+      <c r="AO20" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AP20" s="55">
+      <c r="AP20" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AQ20" s="56">
+      <c r="AQ20" s="25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AR20" s="55">
+      <c r="AR20" s="24">
         <f>COUNTIF(C20:AG20,"残日")</f>
         <v>0</v>
       </c>
-      <c r="AS20" s="58">
+      <c r="AS20" s="27">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AT20" s="63"/>
-      <c r="AU20" s="91"/>
-      <c r="AV20" s="61"/>
-      <c r="AW20" s="62"/>
-      <c r="AX20" s="63"/>
-      <c r="AY20" s="63"/>
-      <c r="AZ20" s="63"/>
-      <c r="BA20" s="63"/>
-      <c r="BB20" s="63"/>
-      <c r="BC20" s="63"/>
-      <c r="BD20" s="63"/>
-      <c r="BE20" s="63"/>
-      <c r="BF20" s="63"/>
-      <c r="BG20" s="63"/>
-      <c r="BH20" s="63"/>
-      <c r="BI20" s="63"/>
-      <c r="BJ20" s="63"/>
-      <c r="BK20" s="64"/>
-      <c r="BL20" s="63"/>
-      <c r="BM20" s="63"/>
-      <c r="BN20" s="63"/>
-      <c r="BO20" s="63"/>
-      <c r="BP20" s="59"/>
-      <c r="BQ20" s="59"/>
-      <c r="BR20" s="59"/>
-      <c r="BS20" s="59"/>
-      <c r="BT20" s="59"/>
-      <c r="BU20" s="63"/>
+      <c r="AT20" s="32"/>
+      <c r="AU20" s="50"/>
+      <c r="AV20" s="30"/>
+      <c r="AW20" s="31"/>
+      <c r="AX20" s="32"/>
+      <c r="AY20" s="32"/>
+      <c r="AZ20" s="32"/>
+      <c r="BA20" s="32"/>
+      <c r="BB20" s="32"/>
+      <c r="BC20" s="32"/>
+      <c r="BD20" s="32"/>
+      <c r="BE20" s="32"/>
+      <c r="BF20" s="32"/>
+      <c r="BG20" s="32"/>
+      <c r="BH20" s="32"/>
+      <c r="BI20" s="32"/>
+      <c r="BJ20" s="32"/>
+      <c r="BK20" s="33"/>
+      <c r="BL20" s="32"/>
+      <c r="BM20" s="32"/>
+      <c r="BN20" s="32"/>
+      <c r="BO20" s="32"/>
+      <c r="BP20" s="28"/>
+      <c r="BQ20" s="28"/>
+      <c r="BR20" s="28"/>
+      <c r="BS20" s="28"/>
+      <c r="BT20" s="28"/>
+      <c r="BU20" s="32"/>
     </row>
     <row r="21" spans="1:73" ht="30" customHeight="1" thickBot="1">
-      <c r="A21" s="90"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="49" t="s">
+      <c r="A21" s="175"/>
+      <c r="B21" s="175"/>
+      <c r="C21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="49" t="s">
+      <c r="G21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="49" t="s">
+      <c r="H21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I21" s="49" t="s">
+      <c r="I21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="49" t="s">
+      <c r="J21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="49" t="s">
+      <c r="K21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="L21" s="49" t="s">
+      <c r="L21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="M21" s="49" t="s">
+      <c r="M21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="N21" s="49" t="s">
+      <c r="N21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="O21" s="49" t="s">
+      <c r="O21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="P21" s="49" t="s">
+      <c r="P21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="Q21" s="49" t="s">
+      <c r="Q21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="R21" s="49" t="s">
+      <c r="R21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="S21" s="49" t="s">
+      <c r="S21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="T21" s="49" t="s">
+      <c r="T21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="U21" s="49" t="s">
+      <c r="U21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="V21" s="49" t="s">
+      <c r="V21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="W21" s="49" t="s">
+      <c r="W21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="X21" s="49" t="s">
+      <c r="X21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="Y21" s="49" t="s">
+      <c r="Y21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="Z21" s="49" t="s">
+      <c r="Z21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AA21" s="49" t="s">
+      <c r="AA21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB21" s="49" t="s">
+      <c r="AB21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AC21" s="49" t="s">
+      <c r="AC21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AD21" s="49" t="s">
+      <c r="AD21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AE21" s="49" t="s">
+      <c r="AE21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AF21" s="49" t="s">
+      <c r="AF21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AG21" s="49" t="s">
+      <c r="AG21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AH21" s="50">
+      <c r="AH21" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI21" s="51">
+      <c r="AI21" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ21" s="52">
+      <c r="AJ21" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AK21" s="53">
+      <c r="AK21" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AL21" s="54">
+      <c r="AL21" s="23">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AM21" s="51">
+      <c r="AM21" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AN21" s="55">
+      <c r="AN21" s="24">
         <f>COUNTIF(C21:AG21,"残")</f>
         <v>0</v>
       </c>
-      <c r="AO21" s="55">
+      <c r="AO21" s="24">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AP21" s="55">
+      <c r="AP21" s="24">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AQ21" s="56">
+      <c r="AQ21" s="25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AR21" s="92">
+      <c r="AR21" s="51">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AS21" s="58">
+      <c r="AS21" s="27">
         <f>COUNTIF(C21:AG21,"早日")</f>
         <v>0</v>
       </c>
-      <c r="AU21" s="60"/>
-      <c r="AV21" s="61"/>
-      <c r="AW21" s="62"/>
-      <c r="AX21" s="63"/>
-      <c r="AY21" s="63"/>
-      <c r="AZ21" s="63"/>
-      <c r="BA21" s="63"/>
-      <c r="BB21" s="63"/>
-      <c r="BC21" s="63"/>
-      <c r="BD21" s="63"/>
-      <c r="BE21" s="63"/>
-      <c r="BF21" s="63"/>
-      <c r="BG21" s="63"/>
-      <c r="BH21" s="63"/>
-      <c r="BI21" s="63"/>
-      <c r="BJ21" s="63"/>
-      <c r="BK21" s="64"/>
-      <c r="BL21" s="63"/>
-      <c r="BM21" s="63"/>
-      <c r="BN21" s="63"/>
-      <c r="BO21" s="63"/>
+      <c r="AU21" s="29"/>
+      <c r="AV21" s="30"/>
+      <c r="AW21" s="31"/>
+      <c r="AX21" s="32"/>
+      <c r="AY21" s="32"/>
+      <c r="AZ21" s="32"/>
+      <c r="BA21" s="32"/>
+      <c r="BB21" s="32"/>
+      <c r="BC21" s="32"/>
+      <c r="BD21" s="32"/>
+      <c r="BE21" s="32"/>
+      <c r="BF21" s="32"/>
+      <c r="BG21" s="32"/>
+      <c r="BH21" s="32"/>
+      <c r="BI21" s="32"/>
+      <c r="BJ21" s="32"/>
+      <c r="BK21" s="33"/>
+      <c r="BL21" s="32"/>
+      <c r="BM21" s="32"/>
+      <c r="BN21" s="32"/>
+      <c r="BO21" s="32"/>
     </row>
     <row r="22" spans="1:73" ht="30" customHeight="1" thickBot="1">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="37">
+      <c r="B22" s="168"/>
+      <c r="C22" s="18">
         <f>COUNTIF(C$6:C$21,"残")+COUNTIF(C$6:C$21,"残日")+COUNTIF(C$6:C$21,"早日")+COUNTBLANK(C$6:C$21)+COUNTIF(C$6:C$21,"昼")+COUNTIF(C$6:C$21,"残夕")+COUNTIF(C$6:C$21,"早")+COUNTIF(C$6:C$21,"日直")</f>
         <v>14</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="18">
         <f t="shared" ref="D22:AG22" si="17">COUNTIF(D$6:D$21,"残")+COUNTIF(D$6:D$21,"残日")+COUNTIF(D$6:D$21,"早日")+COUNTBLANK(D$6:D$21)+COUNTIF(D$6:D$21,"昼")+COUNTIF(D$6:D$21,"残夕")+COUNTIF(D$6:D$21,"早")+COUNTIF(D$6:D$21,"日直")</f>
         <v>14</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="J22" s="37">
+      <c r="J22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="K22" s="37">
+      <c r="K22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="L22" s="37">
+      <c r="L22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="M22" s="37">
+      <c r="M22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="N22" s="37">
+      <c r="N22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="O22" s="37">
+      <c r="O22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="P22" s="37">
+      <c r="P22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="Q22" s="37">
+      <c r="Q22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="R22" s="37">
+      <c r="R22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="S22" s="37">
+      <c r="S22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="T22" s="37">
+      <c r="T22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="U22" s="37">
+      <c r="U22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="V22" s="37">
+      <c r="V22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="W22" s="37">
+      <c r="W22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="X22" s="37">
+      <c r="X22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="Y22" s="37">
+      <c r="Y22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="Z22" s="37">
+      <c r="Z22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="AA22" s="37">
+      <c r="AA22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="AB22" s="37">
+      <c r="AB22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="AC22" s="37">
+      <c r="AC22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="AD22" s="37">
+      <c r="AD22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="AE22" s="37">
+      <c r="AE22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="AF22" s="37">
+      <c r="AF22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="AG22" s="37">
+      <c r="AG22" s="18">
         <f t="shared" si="17"/>
         <v>14</v>
       </c>
-      <c r="AH22" s="94"/>
-      <c r="AI22" s="95"/>
-      <c r="AJ22" s="96"/>
-      <c r="AK22" s="97" t="s">
+      <c r="AH22" s="52"/>
+      <c r="AI22" s="53"/>
+      <c r="AJ22" s="54"/>
+      <c r="AK22" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="AL22" s="98">
+      <c r="AL22" s="56">
         <f t="shared" ref="AL22:AO22" si="18">SUM(AL6:AL21)</f>
         <v>0</v>
       </c>
-      <c r="AM22" s="98">
+      <c r="AM22" s="56">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AN22" s="98">
+      <c r="AN22" s="56">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AO22" s="98">
+      <c r="AO22" s="56">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AP22" s="98">
+      <c r="AP22" s="56">
         <f>SUM(AP6:AP21)</f>
         <v>0</v>
       </c>
-      <c r="AQ22" s="98">
+      <c r="AQ22" s="56">
         <f t="shared" ref="AQ22:AS22" si="19">SUM(AQ6:AQ21)</f>
         <v>0</v>
       </c>
-      <c r="AR22" s="99">
+      <c r="AR22" s="57">
         <f>SUM(AR6:AR21)</f>
         <v>0</v>
       </c>
-      <c r="AS22" s="98">
+      <c r="AS22" s="56">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:73" s="14" customFormat="1" ht="39" customHeight="1" thickBot="1">
-      <c r="A23" s="100" t="s">
+    <row r="23" spans="1:73" s="10" customFormat="1" ht="39" customHeight="1" thickBot="1">
+      <c r="A23" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="101"/>
-      <c r="C23" s="102">
+      <c r="B23" s="170"/>
+      <c r="C23" s="58">
         <f t="shared" ref="C23:AG23" si="20">COUNTIF(C$6:C$21,"/振")+COUNTIF(C$6:C$21,"振/")+COUNTIF(C$6:C$21,"/有")+COUNTIF(C$6:C$21,"有/")+COUNTIF(C$6:C$21,"/")+COUNTIF(C$6:C$21,"/休")+COUNTIF(C$6:C$21,"休/")+COUNTIF(C$6:C$21,"有2")+COUNTIF(C$6:C$21,"欠/")</f>
         <v>0</v>
       </c>
-      <c r="D23" s="102">
+      <c r="D23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="E23" s="102">
+      <c r="E23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="F23" s="102">
+      <c r="F23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G23" s="102">
+      <c r="G23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H23" s="102">
+      <c r="H23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="I23" s="102">
+      <c r="I23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="J23" s="102">
+      <c r="J23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="K23" s="102">
+      <c r="K23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L23" s="102">
+      <c r="L23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="M23" s="102">
+      <c r="M23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="N23" s="102">
+      <c r="N23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="O23" s="102">
+      <c r="O23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="P23" s="102">
+      <c r="P23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="102">
+      <c r="Q23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="R23" s="102">
+      <c r="R23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="S23" s="102">
+      <c r="S23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="T23" s="102">
+      <c r="T23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="U23" s="102">
+      <c r="U23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="V23" s="102">
+      <c r="V23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="W23" s="102">
+      <c r="W23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="X23" s="102">
+      <c r="X23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="102">
+      <c r="Y23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="102">
+      <c r="Z23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="102">
+      <c r="AA23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AB23" s="102">
+      <c r="AB23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AC23" s="102">
+      <c r="AC23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AD23" s="102">
+      <c r="AD23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AE23" s="102">
+      <c r="AE23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AF23" s="102">
+      <c r="AF23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AG23" s="102">
+      <c r="AG23" s="58">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AH23" s="94"/>
-      <c r="AI23" s="95"/>
-      <c r="AJ23" s="95"/>
-      <c r="AK23" s="103"/>
-      <c r="AL23" s="103"/>
-      <c r="AM23" s="103"/>
-      <c r="AN23" s="103"/>
-      <c r="AO23" s="103"/>
-      <c r="AP23" s="103"/>
-      <c r="AQ23" s="103"/>
-      <c r="AR23" s="103"/>
-      <c r="AS23" s="103"/>
+      <c r="AH23" s="52"/>
+      <c r="AI23" s="53"/>
+      <c r="AJ23" s="53"/>
+      <c r="AK23" s="59"/>
+      <c r="AL23" s="59"/>
+      <c r="AM23" s="59"/>
+      <c r="AN23" s="59"/>
+      <c r="AO23" s="59"/>
+      <c r="AP23" s="59"/>
+      <c r="AQ23" s="59"/>
+      <c r="AR23" s="59"/>
+      <c r="AS23" s="59"/>
     </row>
-    <row r="24" spans="1:73" s="14" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A24" s="104"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="105"/>
-      <c r="N24" s="105"/>
-      <c r="O24" s="105"/>
-      <c r="P24" s="105"/>
-      <c r="Q24" s="105"/>
-      <c r="R24" s="105"/>
-      <c r="S24" s="105"/>
-      <c r="T24" s="105"/>
-      <c r="U24" s="105"/>
-      <c r="V24" s="105"/>
-      <c r="W24" s="105"/>
-      <c r="X24" s="105"/>
-      <c r="Y24" s="105"/>
-      <c r="Z24" s="105"/>
-      <c r="AA24" s="105"/>
-      <c r="AB24" s="105"/>
-      <c r="AC24" s="105"/>
-      <c r="AD24" s="106"/>
-      <c r="AE24" s="106"/>
-      <c r="AF24" s="106"/>
-      <c r="AG24" s="106"/>
-      <c r="AH24" s="2"/>
-      <c r="AI24" s="2"/>
-      <c r="AJ24" s="2"/>
-      <c r="AK24" s="2"/>
-      <c r="AL24" s="2"/>
-      <c r="AM24" s="2"/>
-      <c r="AN24" s="2"/>
-      <c r="AO24" s="2"/>
-      <c r="AP24" s="2"/>
-      <c r="AQ24" s="2"/>
-      <c r="AR24" s="2"/>
-      <c r="AS24" s="2"/>
-      <c r="AT24" s="107"/>
+    <row r="24" spans="1:73" s="10" customFormat="1" ht="42.75" customHeight="1" thickBot="1">
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="61"/>
+      <c r="AE24" s="61"/>
+      <c r="AF24" s="61"/>
+      <c r="AG24" s="61"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="62"/>
     </row>
     <row r="25" spans="1:73" ht="56.75" customHeight="1">
-      <c r="D25" s="108" t="s">
+      <c r="D25" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="109"/>
-      <c r="F25" s="110" t="s">
+      <c r="E25" s="163"/>
+      <c r="F25" s="164" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="110"/>
-      <c r="H25" s="108" t="s">
+      <c r="G25" s="164"/>
+      <c r="H25" s="162" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="109"/>
-      <c r="J25" s="110" t="s">
+      <c r="I25" s="163"/>
+      <c r="J25" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="K25" s="110"/>
-      <c r="L25" s="108" t="s">
+      <c r="K25" s="164"/>
+      <c r="L25" s="162" t="s">
         <v>45</v>
       </c>
-      <c r="M25" s="109"/>
-      <c r="N25" s="108" t="s">
+      <c r="M25" s="163"/>
+      <c r="N25" s="162" t="s">
         <v>46</v>
       </c>
-      <c r="O25" s="109"/>
-      <c r="P25" s="110" t="s">
+      <c r="O25" s="163"/>
+      <c r="P25" s="164" t="s">
         <v>47</v>
       </c>
-      <c r="Q25" s="110"/>
-      <c r="R25" s="108"/>
-      <c r="S25" s="109"/>
-      <c r="T25" s="20" t="s">
+      <c r="Q25" s="164"/>
+      <c r="R25" s="162"/>
+      <c r="S25" s="163"/>
+      <c r="T25" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="U25" s="111"/>
-      <c r="V25" s="18" t="s">
+      <c r="U25" s="159"/>
+      <c r="V25" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="W25" s="111"/>
-      <c r="X25" s="18" t="s">
+      <c r="W25" s="159"/>
+      <c r="X25" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="Y25" s="111"/>
-      <c r="Z25" s="18" t="s">
+      <c r="Y25" s="159"/>
+      <c r="Z25" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="AA25" s="111"/>
-      <c r="AB25" s="18" t="s">
+      <c r="AA25" s="159"/>
+      <c r="AB25" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="AC25" s="111"/>
-      <c r="AD25" s="18" t="s">
+      <c r="AC25" s="159"/>
+      <c r="AD25" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="AE25" s="111"/>
-      <c r="AF25" s="18" t="s">
+      <c r="AE25" s="159"/>
+      <c r="AF25" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AG25" s="111"/>
-      <c r="AH25" s="112" t="s">
+      <c r="AG25" s="159"/>
+      <c r="AH25" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="AI25" s="112" t="s">
+      <c r="AI25" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="AJ25" s="112" t="s">
+      <c r="AJ25" s="151" t="s">
         <v>57</v>
       </c>
-      <c r="AK25" s="112" t="s">
+      <c r="AK25" s="151" t="s">
         <v>58</v>
       </c>
-      <c r="AL25" s="19" t="s">
+      <c r="AL25" s="153" t="s">
         <v>59</v>
       </c>
-      <c r="AM25" s="19" t="s">
+      <c r="AM25" s="153" t="s">
         <v>60</v>
       </c>
-      <c r="AN25" s="113" t="s">
+      <c r="AN25" s="156" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:73" ht="23.25" customHeight="1">
-      <c r="A26" s="114"/>
-      <c r="D26" s="115">
+      <c r="A26" s="64"/>
+      <c r="D26" s="148">
         <v>15000</v>
       </c>
-      <c r="E26" s="116"/>
-      <c r="F26" s="117">
+      <c r="E26" s="149"/>
+      <c r="F26" s="150">
         <v>20000</v>
       </c>
-      <c r="G26" s="117"/>
-      <c r="H26" s="115">
+      <c r="G26" s="150"/>
+      <c r="H26" s="148">
         <v>5000</v>
       </c>
-      <c r="I26" s="116"/>
-      <c r="J26" s="115">
+      <c r="I26" s="149"/>
+      <c r="J26" s="148">
         <v>6000</v>
       </c>
-      <c r="K26" s="116"/>
-      <c r="L26" s="117">
+      <c r="K26" s="149"/>
+      <c r="L26" s="150">
         <v>7000</v>
       </c>
-      <c r="M26" s="116"/>
-      <c r="N26" s="117">
+      <c r="M26" s="149"/>
+      <c r="N26" s="150">
         <v>2500</v>
       </c>
-      <c r="O26" s="116"/>
-      <c r="P26" s="117">
+      <c r="O26" s="149"/>
+      <c r="P26" s="150">
         <v>2500</v>
       </c>
-      <c r="Q26" s="117"/>
-      <c r="R26" s="115"/>
-      <c r="S26" s="116"/>
-      <c r="T26" s="118"/>
-      <c r="U26" s="119"/>
-      <c r="V26" s="120"/>
-      <c r="W26" s="119"/>
-      <c r="X26" s="120"/>
-      <c r="Y26" s="119"/>
-      <c r="Z26" s="120"/>
-      <c r="AA26" s="119"/>
-      <c r="AB26" s="120"/>
-      <c r="AC26" s="119"/>
-      <c r="AD26" s="120"/>
-      <c r="AE26" s="119"/>
-      <c r="AF26" s="120"/>
-      <c r="AG26" s="119"/>
-      <c r="AH26" s="121"/>
-      <c r="AI26" s="121"/>
-      <c r="AJ26" s="121"/>
-      <c r="AK26" s="121"/>
-      <c r="AL26" s="122"/>
-      <c r="AM26" s="122"/>
-      <c r="AN26" s="123"/>
+      <c r="Q26" s="150"/>
+      <c r="R26" s="148"/>
+      <c r="S26" s="149"/>
+      <c r="T26" s="166"/>
+      <c r="U26" s="161"/>
+      <c r="V26" s="160"/>
+      <c r="W26" s="161"/>
+      <c r="X26" s="160"/>
+      <c r="Y26" s="161"/>
+      <c r="Z26" s="160"/>
+      <c r="AA26" s="161"/>
+      <c r="AB26" s="160"/>
+      <c r="AC26" s="161"/>
+      <c r="AD26" s="160"/>
+      <c r="AE26" s="161"/>
+      <c r="AF26" s="160"/>
+      <c r="AG26" s="161"/>
+      <c r="AH26" s="152"/>
+      <c r="AI26" s="152"/>
+      <c r="AJ26" s="152"/>
+      <c r="AK26" s="152"/>
+      <c r="AL26" s="154"/>
+      <c r="AM26" s="154"/>
+      <c r="AN26" s="157"/>
     </row>
     <row r="27" spans="1:73" ht="21.5" customHeight="1" thickBot="1">
-      <c r="A27" s="124" t="s">
+      <c r="A27" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="106"/>
-      <c r="D27" s="125" t="s">
+      <c r="C27" s="61"/>
+      <c r="D27" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="126" t="s">
+      <c r="E27" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="127" t="s">
+      <c r="F27" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="126" t="s">
+      <c r="G27" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="127" t="s">
+      <c r="H27" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="I27" s="127" t="s">
+      <c r="I27" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="J27" s="125" t="s">
+      <c r="J27" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="K27" s="126" t="s">
+      <c r="K27" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="L27" s="127" t="s">
+      <c r="L27" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="M27" s="127" t="s">
+      <c r="M27" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="N27" s="125" t="s">
+      <c r="N27" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="O27" s="127" t="s">
+      <c r="O27" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="P27" s="125" t="s">
+      <c r="P27" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="Q27" s="126" t="s">
+      <c r="Q27" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="R27" s="128"/>
-      <c r="S27" s="129"/>
-      <c r="T27" s="118"/>
-      <c r="U27" s="119"/>
-      <c r="V27" s="120"/>
-      <c r="W27" s="119"/>
-      <c r="X27" s="120"/>
-      <c r="Y27" s="119"/>
-      <c r="Z27" s="120"/>
-      <c r="AA27" s="119"/>
-      <c r="AB27" s="120"/>
-      <c r="AC27" s="119"/>
-      <c r="AD27" s="120"/>
-      <c r="AE27" s="119"/>
-      <c r="AF27" s="120"/>
-      <c r="AG27" s="119"/>
-      <c r="AH27" s="121"/>
-      <c r="AI27" s="121"/>
-      <c r="AJ27" s="121"/>
-      <c r="AK27" s="121"/>
-      <c r="AL27" s="130"/>
-      <c r="AM27" s="130"/>
-      <c r="AN27" s="123"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="166"/>
+      <c r="U27" s="161"/>
+      <c r="V27" s="160"/>
+      <c r="W27" s="161"/>
+      <c r="X27" s="160"/>
+      <c r="Y27" s="161"/>
+      <c r="Z27" s="160"/>
+      <c r="AA27" s="161"/>
+      <c r="AB27" s="160"/>
+      <c r="AC27" s="161"/>
+      <c r="AD27" s="160"/>
+      <c r="AE27" s="161"/>
+      <c r="AF27" s="160"/>
+      <c r="AG27" s="161"/>
+      <c r="AH27" s="152"/>
+      <c r="AI27" s="152"/>
+      <c r="AJ27" s="152"/>
+      <c r="AK27" s="152"/>
+      <c r="AL27" s="155"/>
+      <c r="AM27" s="155"/>
+      <c r="AN27" s="157"/>
     </row>
     <row r="28" spans="1:73" ht="21.5" customHeight="1">
-      <c r="A28" s="131"/>
-      <c r="B28" s="132" t="s">
+      <c r="A28" s="71"/>
+      <c r="B28" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="133"/>
-      <c r="D28" s="134">
+      <c r="C28" s="140"/>
+      <c r="D28" s="72">
         <f t="shared" ref="D28:D43" si="21">AL6</f>
         <v>0</v>
       </c>
-      <c r="E28" s="135">
+      <c r="E28" s="73">
         <f>$D$26*D28</f>
         <v>0</v>
       </c>
-      <c r="F28" s="134">
+      <c r="F28" s="72">
         <f t="shared" ref="F28:F43" si="22">AM6</f>
         <v>0</v>
       </c>
-      <c r="G28" s="135">
+      <c r="G28" s="73">
         <f t="shared" ref="G28:G43" si="23">$F$26*F28</f>
         <v>0</v>
       </c>
-      <c r="H28" s="136">
+      <c r="H28" s="74">
         <f t="shared" ref="H28:H43" si="24">COUNTIF($C6:$AG6,"日直")</f>
         <v>0</v>
       </c>
-      <c r="I28" s="135">
+      <c r="I28" s="73">
         <f t="shared" ref="I28:I43" si="25">$H$26*H28</f>
         <v>0</v>
       </c>
-      <c r="J28" s="136">
+      <c r="J28" s="74">
         <f t="shared" ref="J28:J43" si="26">COUNTIF($C6:$AG6,"早日")</f>
         <v>0</v>
       </c>
-      <c r="K28" s="137">
+      <c r="K28" s="75">
         <f>$J$26*J28</f>
         <v>0</v>
       </c>
-      <c r="L28" s="138">
+      <c r="L28" s="63">
         <f t="shared" ref="L28:L43" si="27">COUNTIF($C6:$AG6,"残日")</f>
         <v>0</v>
       </c>
-      <c r="M28" s="139">
+      <c r="M28" s="76">
         <f t="shared" ref="M28:M43" si="28">$L$26*L28</f>
         <v>0</v>
       </c>
-      <c r="N28" s="136">
+      <c r="N28" s="74">
         <f t="shared" ref="N28:N43" si="29">COUNTIF($C6:$AG6,"日/休")</f>
         <v>0</v>
       </c>
-      <c r="O28" s="137">
+      <c r="O28" s="75">
         <f t="shared" ref="O28:O43" si="30">$P$26*N28</f>
         <v>0</v>
       </c>
-      <c r="P28" s="134">
+      <c r="P28" s="72">
         <f t="shared" ref="P28:P42" si="31">COUNTIF($C6:$AG6,"/訪")</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="135">
+      <c r="Q28" s="73">
         <f>$N$26*P28</f>
         <v>0</v>
       </c>
-      <c r="R28" s="140"/>
-      <c r="S28" s="141"/>
-      <c r="T28" s="134">
+      <c r="R28" s="77"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="72">
         <f t="shared" ref="T28:T43" si="32">COUNTIF($C6:$AG6,"休")+COUNTIF($C6:$AG6,"振/休")+COUNTIF($C6:$AG6,"休/振")</f>
         <v>0</v>
       </c>
-      <c r="U28" s="142"/>
-      <c r="V28" s="143">
+      <c r="U28" s="79"/>
+      <c r="V28" s="80">
         <f t="shared" ref="V28:V42" si="33">COUNTIF($C6:$AG6,"/休")+COUNTIF($C6:$AG6,"休/")+COUNTIF($C6:$AG6,"/")</f>
         <v>0</v>
       </c>
-      <c r="W28" s="142"/>
-      <c r="X28" s="143">
+      <c r="W28" s="79"/>
+      <c r="X28" s="80">
         <f t="shared" ref="X28:X42" si="34">COUNTIF($C6:$AG6,"有/振")</f>
         <v>0</v>
       </c>
-      <c r="Y28" s="142"/>
-      <c r="Z28" s="143">
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="80">
         <f t="shared" ref="Z28:Z42" si="35">COUNTIF($C6:$AG6,"振")</f>
         <v>0</v>
       </c>
-      <c r="AA28" s="142"/>
-      <c r="AB28" s="143">
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="80">
         <f t="shared" ref="AB28:AB42" si="36">COUNTIF($C6:$AG6,"/振")+COUNTIF($C6:$AG6,"振/")+COUNTIF($C6:$AG6,"振/夕")</f>
         <v>0</v>
       </c>
-      <c r="AC28" s="142"/>
-      <c r="AD28" s="143">
+      <c r="AC28" s="79"/>
+      <c r="AD28" s="80">
         <f t="shared" ref="AD28:AD42" si="37">COUNTIF($C6:$AG6,"有")</f>
         <v>0</v>
       </c>
-      <c r="AE28" s="142"/>
-      <c r="AF28" s="143">
+      <c r="AE28" s="79"/>
+      <c r="AF28" s="80">
         <f t="shared" ref="AF28:AF42" si="38">COUNTIF($C6:$AG6,"/有")+COUNTIF($C6:$AG6,"有/")</f>
         <v>0</v>
       </c>
-      <c r="AG28" s="142"/>
-      <c r="AH28" s="7">
+      <c r="AG28" s="79"/>
+      <c r="AH28" s="4">
         <f t="shared" ref="AH28:AH42" si="39">COUNTIF($C6:$AG6,"有/休")</f>
         <v>0</v>
       </c>
-      <c r="AI28" s="7">
+      <c r="AI28" s="4">
         <f t="shared" ref="AI28:AI42" si="40">COUNTIF($C6:$AG6,"欠")</f>
         <v>0</v>
       </c>
-      <c r="AJ28" s="7">
+      <c r="AJ28" s="4">
         <f t="shared" ref="AJ28:AJ42" si="41">COUNTIFS($C$5:$AG$5,"&lt;&gt;土",$C6:$AG6,"欠/")</f>
         <v>0</v>
       </c>
-      <c r="AK28" s="7">
+      <c r="AK28" s="4">
         <f t="shared" ref="AK28:AK43" si="42">COUNTIFS($C$5:$AG$5,"土",$C6:$AG6,"欠/")</f>
         <v>0</v>
       </c>
-      <c r="AL28" s="7">
+      <c r="AL28" s="4">
         <f t="shared" ref="AL28:AL42" si="43">COUNTIF($C6:$AG6,"日/休")</f>
         <v>0</v>
       </c>
-      <c r="AM28" s="7">
+      <c r="AM28" s="4">
         <f t="shared" ref="AM28:AM42" si="44">COUNTIF($C6:$AG6,"/訪")</f>
         <v>0</v>
       </c>
-      <c r="AN28" s="144">
+      <c r="AN28" s="81">
         <f t="shared" ref="AN28:AN43" si="45">COUNTIF($C6:$AG6,"有２")</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:73" ht="25" customHeight="1">
-      <c r="A29" s="131"/>
-      <c r="B29" s="132" t="s">
+      <c r="A29" s="71"/>
+      <c r="B29" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="133"/>
-      <c r="D29" s="145">
+      <c r="C29" s="140"/>
+      <c r="D29" s="82">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="E29" s="146">
+      <c r="E29" s="83">
         <f t="shared" ref="E29:E43" si="46">$D$26*D29</f>
         <v>0</v>
       </c>
-      <c r="F29" s="145">
+      <c r="F29" s="82">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G29" s="146">
+      <c r="G29" s="83">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="H29" s="147">
+      <c r="H29" s="84">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I29" s="148">
+      <c r="I29" s="85">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="J29" s="145">
+      <c r="J29" s="82">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K29" s="148">
+      <c r="K29" s="85">
         <f t="shared" ref="K29:K43" si="47">$J$26*J29</f>
         <v>0</v>
       </c>
-      <c r="L29" s="149">
+      <c r="L29" s="86">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="M29" s="150">
+      <c r="M29" s="87">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="N29" s="147">
+      <c r="N29" s="84">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="O29" s="148">
+      <c r="O29" s="85">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="P29" s="145">
+      <c r="P29" s="82">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="146">
+      <c r="Q29" s="83">
         <f t="shared" ref="Q29:Q43" si="48">$N$26*P29</f>
         <v>0</v>
       </c>
-      <c r="R29" s="151"/>
-      <c r="S29" s="152"/>
-      <c r="T29" s="145">
+      <c r="R29" s="88"/>
+      <c r="S29" s="89"/>
+      <c r="T29" s="82">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="U29" s="153"/>
-      <c r="V29" s="154">
+      <c r="U29" s="90"/>
+      <c r="V29" s="91">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="W29" s="153"/>
-      <c r="X29" s="154">
+      <c r="W29" s="90"/>
+      <c r="X29" s="91">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="153"/>
-      <c r="Z29" s="154">
+      <c r="Y29" s="90"/>
+      <c r="Z29" s="91">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AA29" s="153"/>
-      <c r="AB29" s="154">
+      <c r="AA29" s="90"/>
+      <c r="AB29" s="91">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AC29" s="153"/>
-      <c r="AD29" s="154">
+      <c r="AC29" s="90"/>
+      <c r="AD29" s="91">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AE29" s="153"/>
-      <c r="AF29" s="154">
+      <c r="AE29" s="90"/>
+      <c r="AF29" s="91">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG29" s="153"/>
-      <c r="AH29" s="155">
+      <c r="AG29" s="90"/>
+      <c r="AH29" s="92">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AI29" s="155">
+      <c r="AI29" s="92">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AJ29" s="155">
+      <c r="AJ29" s="92">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AK29" s="155">
+      <c r="AK29" s="92">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AL29" s="155">
+      <c r="AL29" s="92">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AM29" s="155">
+      <c r="AM29" s="92">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AN29" s="156">
+      <c r="AN29" s="93">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:73" ht="25" customHeight="1">
-      <c r="A30" s="131"/>
-      <c r="B30" s="132" t="s">
+      <c r="A30" s="71"/>
+      <c r="B30" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="133"/>
-      <c r="D30" s="145">
+      <c r="C30" s="140"/>
+      <c r="D30" s="82">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="E30" s="146">
+      <c r="E30" s="83">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F30" s="145">
+      <c r="F30" s="82">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G30" s="148">
+      <c r="G30" s="85">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="H30" s="145">
+      <c r="H30" s="82">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I30" s="148">
+      <c r="I30" s="85">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="J30" s="145">
+      <c r="J30" s="82">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K30" s="148">
+      <c r="K30" s="85">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="L30" s="149">
+      <c r="L30" s="86">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="M30" s="150">
+      <c r="M30" s="87">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="N30" s="147">
+      <c r="N30" s="84">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="O30" s="148">
+      <c r="O30" s="85">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="P30" s="145">
+      <c r="P30" s="82">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Q30" s="146">
+      <c r="Q30" s="83">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="R30" s="151"/>
-      <c r="S30" s="152"/>
-      <c r="T30" s="145">
+      <c r="R30" s="88"/>
+      <c r="S30" s="89"/>
+      <c r="T30" s="82">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="U30" s="153"/>
-      <c r="V30" s="154">
+      <c r="U30" s="90"/>
+      <c r="V30" s="91">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="W30" s="153"/>
-      <c r="X30" s="154">
+      <c r="W30" s="90"/>
+      <c r="X30" s="91">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y30" s="153"/>
-      <c r="Z30" s="154">
+      <c r="Y30" s="90"/>
+      <c r="Z30" s="91">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="153"/>
-      <c r="AB30" s="154">
+      <c r="AA30" s="90"/>
+      <c r="AB30" s="91">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AC30" s="153"/>
-      <c r="AD30" s="154">
+      <c r="AC30" s="90"/>
+      <c r="AD30" s="91">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AE30" s="153"/>
-      <c r="AF30" s="154">
+      <c r="AE30" s="90"/>
+      <c r="AF30" s="91">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG30" s="153"/>
-      <c r="AH30" s="155">
+      <c r="AG30" s="90"/>
+      <c r="AH30" s="92">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AI30" s="155">
+      <c r="AI30" s="92">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AJ30" s="155">
+      <c r="AJ30" s="92">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AK30" s="155">
+      <c r="AK30" s="92">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AL30" s="155">
+      <c r="AL30" s="92">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AM30" s="155">
+      <c r="AM30" s="92">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AN30" s="156">
+      <c r="AN30" s="93">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:73" ht="25" customHeight="1">
-      <c r="A31" s="131"/>
-      <c r="B31" s="132" t="s">
+      <c r="A31" s="71"/>
+      <c r="B31" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="133"/>
-      <c r="D31" s="145">
+      <c r="C31" s="140"/>
+      <c r="D31" s="82">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="E31" s="146">
+      <c r="E31" s="83">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F31" s="145">
+      <c r="F31" s="82">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G31" s="148">
+      <c r="G31" s="85">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="H31" s="145">
+      <c r="H31" s="82">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I31" s="148">
+      <c r="I31" s="85">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="J31" s="145">
+      <c r="J31" s="82">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K31" s="148">
+      <c r="K31" s="85">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="L31" s="149">
+      <c r="L31" s="86">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="M31" s="150">
+      <c r="M31" s="87">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="N31" s="147">
+      <c r="N31" s="84">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="O31" s="148">
+      <c r="O31" s="85">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="P31" s="145">
+      <c r="P31" s="82">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="146">
+      <c r="Q31" s="83">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="R31" s="151"/>
-      <c r="S31" s="152"/>
-      <c r="T31" s="145">
+      <c r="R31" s="88"/>
+      <c r="S31" s="89"/>
+      <c r="T31" s="82">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="U31" s="153"/>
-      <c r="V31" s="154">
+      <c r="U31" s="90"/>
+      <c r="V31" s="91">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="W31" s="153"/>
-      <c r="X31" s="154">
+      <c r="W31" s="90"/>
+      <c r="X31" s="91">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="153"/>
-      <c r="Z31" s="154">
+      <c r="Y31" s="90"/>
+      <c r="Z31" s="91">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="153"/>
-      <c r="AB31" s="154">
+      <c r="AA31" s="90"/>
+      <c r="AB31" s="91">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AC31" s="153"/>
-      <c r="AD31" s="154">
+      <c r="AC31" s="90"/>
+      <c r="AD31" s="91">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AE31" s="153"/>
-      <c r="AF31" s="154">
+      <c r="AE31" s="90"/>
+      <c r="AF31" s="91">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG31" s="153"/>
-      <c r="AH31" s="155">
+      <c r="AG31" s="90"/>
+      <c r="AH31" s="92">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AI31" s="155">
+      <c r="AI31" s="92">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AJ31" s="155">
+      <c r="AJ31" s="92">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AK31" s="155">
+      <c r="AK31" s="92">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AL31" s="155">
+      <c r="AL31" s="92">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AM31" s="155">
+      <c r="AM31" s="92">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AN31" s="156">
+      <c r="AN31" s="93">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:73" ht="25" customHeight="1">
-      <c r="A32" s="131"/>
-      <c r="B32" s="132" t="s">
+      <c r="A32" s="71"/>
+      <c r="B32" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="133"/>
-      <c r="D32" s="145">
+      <c r="C32" s="140"/>
+      <c r="D32" s="82">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="E32" s="146">
+      <c r="E32" s="83">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F32" s="145">
+      <c r="F32" s="82">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G32" s="148">
+      <c r="G32" s="85">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="H32" s="145">
+      <c r="H32" s="82">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I32" s="146">
+      <c r="I32" s="83">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="J32" s="157">
+      <c r="J32" s="94">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K32" s="148">
+      <c r="K32" s="85">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="L32" s="149">
+      <c r="L32" s="86">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="M32" s="150">
+      <c r="M32" s="87">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="N32" s="147">
+      <c r="N32" s="84">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="O32" s="148">
+      <c r="O32" s="85">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="P32" s="145">
+      <c r="P32" s="82">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="146">
+      <c r="Q32" s="83">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="R32" s="151"/>
-      <c r="S32" s="152"/>
-      <c r="T32" s="145">
+      <c r="R32" s="88"/>
+      <c r="S32" s="89"/>
+      <c r="T32" s="82">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="U32" s="153"/>
-      <c r="V32" s="154">
+      <c r="U32" s="90"/>
+      <c r="V32" s="91">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="W32" s="153"/>
-      <c r="X32" s="154">
+      <c r="W32" s="90"/>
+      <c r="X32" s="91">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y32" s="153"/>
-      <c r="Z32" s="154">
+      <c r="Y32" s="90"/>
+      <c r="Z32" s="91">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="153"/>
-      <c r="AB32" s="154">
+      <c r="AA32" s="90"/>
+      <c r="AB32" s="91">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AC32" s="153"/>
-      <c r="AD32" s="154">
+      <c r="AC32" s="90"/>
+      <c r="AD32" s="91">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AE32" s="153"/>
-      <c r="AF32" s="154">
+      <c r="AE32" s="90"/>
+      <c r="AF32" s="91">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG32" s="153"/>
-      <c r="AH32" s="155">
+      <c r="AG32" s="90"/>
+      <c r="AH32" s="92">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AI32" s="155">
+      <c r="AI32" s="92">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AJ32" s="155">
+      <c r="AJ32" s="92">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AK32" s="155">
+      <c r="AK32" s="92">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AL32" s="155">
+      <c r="AL32" s="92">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AM32" s="155">
+      <c r="AM32" s="92">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AN32" s="156">
+      <c r="AN32" s="93">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AQ32" s="158"/>
+      <c r="AQ32" s="95"/>
     </row>
     <row r="33" spans="1:47" ht="25" customHeight="1">
-      <c r="A33" s="131"/>
-      <c r="B33" s="132" t="s">
+      <c r="A33" s="71"/>
+      <c r="B33" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="133"/>
-      <c r="D33" s="145">
+      <c r="C33" s="140"/>
+      <c r="D33" s="82">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="E33" s="146">
+      <c r="E33" s="83">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F33" s="145">
+      <c r="F33" s="82">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G33" s="148">
+      <c r="G33" s="85">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="H33" s="145">
+      <c r="H33" s="82">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I33" s="146">
+      <c r="I33" s="83">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="J33" s="157">
+      <c r="J33" s="94">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K33" s="148">
+      <c r="K33" s="85">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="L33" s="149">
+      <c r="L33" s="86">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="M33" s="150">
+      <c r="M33" s="87">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="N33" s="147">
+      <c r="N33" s="84">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="O33" s="148">
+      <c r="O33" s="85">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="P33" s="145">
+      <c r="P33" s="82">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="146">
+      <c r="Q33" s="83">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="R33" s="151"/>
-      <c r="S33" s="152"/>
-      <c r="T33" s="145">
+      <c r="R33" s="88"/>
+      <c r="S33" s="89"/>
+      <c r="T33" s="82">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="U33" s="153"/>
-      <c r="V33" s="154">
+      <c r="U33" s="90"/>
+      <c r="V33" s="91">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="W33" s="153"/>
-      <c r="X33" s="154">
+      <c r="W33" s="90"/>
+      <c r="X33" s="91">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="153"/>
-      <c r="Z33" s="154">
+      <c r="Y33" s="90"/>
+      <c r="Z33" s="91">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AA33" s="153"/>
-      <c r="AB33" s="154">
+      <c r="AA33" s="90"/>
+      <c r="AB33" s="91">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AC33" s="153"/>
-      <c r="AD33" s="154">
+      <c r="AC33" s="90"/>
+      <c r="AD33" s="91">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AE33" s="153"/>
-      <c r="AF33" s="154">
+      <c r="AE33" s="90"/>
+      <c r="AF33" s="91">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG33" s="153"/>
-      <c r="AH33" s="155">
+      <c r="AG33" s="90"/>
+      <c r="AH33" s="92">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AI33" s="155">
+      <c r="AI33" s="92">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AJ33" s="155">
+      <c r="AJ33" s="92">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AK33" s="155">
+      <c r="AK33" s="92">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AL33" s="155">
+      <c r="AL33" s="92">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AM33" s="155">
+      <c r="AM33" s="92">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AN33" s="156">
+      <c r="AN33" s="93">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:47" ht="25" customHeight="1">
-      <c r="A34" s="131"/>
-      <c r="B34" s="132" t="s">
+      <c r="A34" s="71"/>
+      <c r="B34" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="133"/>
-      <c r="D34" s="145">
+      <c r="C34" s="140"/>
+      <c r="D34" s="82">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="E34" s="146">
+      <c r="E34" s="83">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F34" s="145">
+      <c r="F34" s="82">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G34" s="148">
+      <c r="G34" s="85">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="H34" s="145">
+      <c r="H34" s="82">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I34" s="148">
+      <c r="I34" s="85">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="J34" s="145">
+      <c r="J34" s="82">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K34" s="148">
+      <c r="K34" s="85">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="L34" s="149">
+      <c r="L34" s="86">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="M34" s="150">
+      <c r="M34" s="87">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="N34" s="147">
+      <c r="N34" s="84">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="O34" s="148">
+      <c r="O34" s="85">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="P34" s="145">
+      <c r="P34" s="82">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="146">
+      <c r="Q34" s="83">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="R34" s="151"/>
-      <c r="S34" s="152"/>
-      <c r="T34" s="145">
+      <c r="R34" s="88"/>
+      <c r="S34" s="89"/>
+      <c r="T34" s="82">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="U34" s="153"/>
-      <c r="V34" s="154">
+      <c r="U34" s="90"/>
+      <c r="V34" s="91">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="W34" s="153"/>
-      <c r="X34" s="154">
+      <c r="W34" s="90"/>
+      <c r="X34" s="91">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="153"/>
-      <c r="Z34" s="154">
+      <c r="Y34" s="90"/>
+      <c r="Z34" s="91">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AA34" s="153"/>
-      <c r="AB34" s="154">
+      <c r="AA34" s="90"/>
+      <c r="AB34" s="91">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AC34" s="153"/>
-      <c r="AD34" s="154">
+      <c r="AC34" s="90"/>
+      <c r="AD34" s="91">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AE34" s="153"/>
-      <c r="AF34" s="154">
+      <c r="AE34" s="90"/>
+      <c r="AF34" s="91">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG34" s="153"/>
-      <c r="AH34" s="155">
+      <c r="AG34" s="90"/>
+      <c r="AH34" s="92">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AI34" s="155">
+      <c r="AI34" s="92">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AJ34" s="155">
+      <c r="AJ34" s="92">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AK34" s="155">
+      <c r="AK34" s="92">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AL34" s="155">
+      <c r="AL34" s="92">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AM34" s="155">
+      <c r="AM34" s="92">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AN34" s="156">
+      <c r="AN34" s="93">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:47" ht="25" customHeight="1">
-      <c r="A35" s="131"/>
-      <c r="B35" s="132" t="s">
+      <c r="A35" s="71"/>
+      <c r="B35" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="133"/>
-      <c r="D35" s="145">
+      <c r="C35" s="140"/>
+      <c r="D35" s="82">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="E35" s="146">
+      <c r="E35" s="83">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F35" s="145">
+      <c r="F35" s="82">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G35" s="146">
+      <c r="G35" s="83">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="H35" s="147">
+      <c r="H35" s="84">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I35" s="146">
+      <c r="I35" s="83">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="J35" s="147">
+      <c r="J35" s="84">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K35" s="148">
+      <c r="K35" s="85">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="L35" s="159">
+      <c r="L35" s="96">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="M35" s="150">
+      <c r="M35" s="87">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="N35" s="147">
+      <c r="N35" s="84">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="O35" s="148">
+      <c r="O35" s="85">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="P35" s="145">
+      <c r="P35" s="82">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="146">
+      <c r="Q35" s="83">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="R35" s="160"/>
-      <c r="S35" s="152"/>
-      <c r="T35" s="145">
+      <c r="R35" s="97"/>
+      <c r="S35" s="89"/>
+      <c r="T35" s="82">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="U35" s="153"/>
-      <c r="V35" s="154">
+      <c r="U35" s="90"/>
+      <c r="V35" s="91">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="W35" s="153"/>
-      <c r="X35" s="154">
+      <c r="W35" s="90"/>
+      <c r="X35" s="91">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y35" s="153"/>
-      <c r="Z35" s="154">
+      <c r="Y35" s="90"/>
+      <c r="Z35" s="91">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AA35" s="153"/>
-      <c r="AB35" s="154">
+      <c r="AA35" s="90"/>
+      <c r="AB35" s="91">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AC35" s="153"/>
-      <c r="AD35" s="154">
+      <c r="AC35" s="90"/>
+      <c r="AD35" s="91">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AE35" s="153"/>
-      <c r="AF35" s="154">
+      <c r="AE35" s="90"/>
+      <c r="AF35" s="91">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG35" s="153"/>
-      <c r="AH35" s="155">
+      <c r="AG35" s="90"/>
+      <c r="AH35" s="92">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AI35" s="155">
+      <c r="AI35" s="92">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AJ35" s="155">
+      <c r="AJ35" s="92">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AK35" s="155">
+      <c r="AK35" s="92">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AL35" s="155">
+      <c r="AL35" s="92">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AM35" s="155">
+      <c r="AM35" s="92">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AN35" s="156">
+      <c r="AN35" s="93">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:47" ht="25" customHeight="1">
-      <c r="A36" s="131"/>
-      <c r="B36" s="161" t="s">
+      <c r="A36" s="71"/>
+      <c r="B36" s="141" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="162"/>
-      <c r="D36" s="145">
+      <c r="C36" s="142"/>
+      <c r="D36" s="82">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="E36" s="146">
+      <c r="E36" s="83">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F36" s="145">
+      <c r="F36" s="82">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G36" s="148">
+      <c r="G36" s="85">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="H36" s="145">
+      <c r="H36" s="82">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I36" s="146">
+      <c r="I36" s="83">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="J36" s="147">
+      <c r="J36" s="84">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K36" s="148">
+      <c r="K36" s="85">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="L36" s="159">
+      <c r="L36" s="96">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="M36" s="150">
+      <c r="M36" s="87">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="N36" s="147">
+      <c r="N36" s="84">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="O36" s="148">
+      <c r="O36" s="85">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="P36" s="145">
+      <c r="P36" s="82">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="146">
+      <c r="Q36" s="83">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="R36" s="160"/>
-      <c r="S36" s="152"/>
-      <c r="T36" s="145">
+      <c r="R36" s="97"/>
+      <c r="S36" s="89"/>
+      <c r="T36" s="82">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="U36" s="153"/>
-      <c r="V36" s="154">
+      <c r="U36" s="90"/>
+      <c r="V36" s="91">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="W36" s="153"/>
-      <c r="X36" s="154">
+      <c r="W36" s="90"/>
+      <c r="X36" s="91">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y36" s="153"/>
-      <c r="Z36" s="154">
+      <c r="Y36" s="90"/>
+      <c r="Z36" s="91">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AA36" s="153"/>
-      <c r="AB36" s="154">
+      <c r="AA36" s="90"/>
+      <c r="AB36" s="91">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AC36" s="153"/>
-      <c r="AD36" s="154">
+      <c r="AC36" s="90"/>
+      <c r="AD36" s="91">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AE36" s="153"/>
-      <c r="AF36" s="154">
+      <c r="AE36" s="90"/>
+      <c r="AF36" s="91">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG36" s="153"/>
-      <c r="AH36" s="155">
+      <c r="AG36" s="90"/>
+      <c r="AH36" s="92">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AI36" s="155">
+      <c r="AI36" s="92">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AJ36" s="155">
+      <c r="AJ36" s="92">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AK36" s="155">
+      <c r="AK36" s="92">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AL36" s="155">
+      <c r="AL36" s="92">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AM36" s="155">
+      <c r="AM36" s="92">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AN36" s="156">
+      <c r="AN36" s="93">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AU36" s="95"/>
+      <c r="AU36" s="53"/>
     </row>
     <row r="37" spans="1:47" ht="25" customHeight="1" thickBot="1">
-      <c r="A37" s="163"/>
-      <c r="B37" s="164" t="s">
+      <c r="A37" s="98"/>
+      <c r="B37" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="165"/>
-      <c r="D37" s="166">
+      <c r="C37" s="145"/>
+      <c r="D37" s="99">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="E37" s="167">
+      <c r="E37" s="100">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F37" s="166">
+      <c r="F37" s="99">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G37" s="168">
+      <c r="G37" s="101">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="H37" s="166">
+      <c r="H37" s="99">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I37" s="167">
+      <c r="I37" s="100">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="J37" s="169">
+      <c r="J37" s="102">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K37" s="168">
+      <c r="K37" s="101">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="L37" s="170">
+      <c r="L37" s="103">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="M37" s="171">
+      <c r="M37" s="104">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="N37" s="169">
+      <c r="N37" s="102">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="O37" s="168">
+      <c r="O37" s="101">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="P37" s="166">
+      <c r="P37" s="99">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="167">
+      <c r="Q37" s="100">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="R37" s="172"/>
-      <c r="S37" s="173"/>
-      <c r="T37" s="169">
+      <c r="R37" s="105"/>
+      <c r="S37" s="106"/>
+      <c r="T37" s="102">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="U37" s="174"/>
-      <c r="V37" s="175">
+      <c r="U37" s="107"/>
+      <c r="V37" s="108">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="W37" s="174"/>
-      <c r="X37" s="175">
+      <c r="W37" s="107"/>
+      <c r="X37" s="108">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y37" s="174"/>
-      <c r="Z37" s="175">
+      <c r="Y37" s="107"/>
+      <c r="Z37" s="108">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AA37" s="174"/>
-      <c r="AB37" s="175">
+      <c r="AA37" s="107"/>
+      <c r="AB37" s="108">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AC37" s="174"/>
-      <c r="AD37" s="175">
+      <c r="AC37" s="107"/>
+      <c r="AD37" s="108">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AE37" s="174"/>
-      <c r="AF37" s="175">
+      <c r="AE37" s="107"/>
+      <c r="AF37" s="108">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG37" s="174"/>
-      <c r="AH37" s="176">
+      <c r="AG37" s="107"/>
+      <c r="AH37" s="109">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AI37" s="176">
+      <c r="AI37" s="109">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AJ37" s="176">
+      <c r="AJ37" s="109">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AK37" s="176">
+      <c r="AK37" s="109">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AL37" s="176">
+      <c r="AL37" s="109">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AM37" s="176">
+      <c r="AM37" s="109">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AN37" s="177">
+      <c r="AN37" s="110">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:47" ht="25" customHeight="1" thickTop="1">
-      <c r="A38" s="178"/>
-      <c r="B38" s="179" t="s">
+      <c r="A38" s="111"/>
+      <c r="B38" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="180"/>
-      <c r="D38" s="181">
+      <c r="C38" s="147"/>
+      <c r="D38" s="112">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="E38" s="146">
+      <c r="E38" s="83">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F38" s="145">
+      <c r="F38" s="82">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G38" s="146">
+      <c r="G38" s="83">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="H38" s="147">
+      <c r="H38" s="84">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I38" s="182">
+      <c r="I38" s="113">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="J38" s="145">
+      <c r="J38" s="82">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K38" s="182">
+      <c r="K38" s="113">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="L38" s="149">
+      <c r="L38" s="86">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="M38" s="183">
+      <c r="M38" s="114">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="N38" s="157">
+      <c r="N38" s="94">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="O38" s="182">
+      <c r="O38" s="113">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="P38" s="181">
+      <c r="P38" s="112">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="184">
+      <c r="Q38" s="115">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="R38" s="185"/>
-      <c r="S38" s="186"/>
-      <c r="T38" s="157">
+      <c r="R38" s="116"/>
+      <c r="S38" s="117"/>
+      <c r="T38" s="94">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="U38" s="187"/>
-      <c r="V38" s="188">
+      <c r="U38" s="118"/>
+      <c r="V38" s="119">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="W38" s="187"/>
-      <c r="X38" s="188">
+      <c r="W38" s="118"/>
+      <c r="X38" s="119">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y38" s="187"/>
-      <c r="Z38" s="188">
+      <c r="Y38" s="118"/>
+      <c r="Z38" s="119">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AA38" s="187"/>
-      <c r="AB38" s="188">
+      <c r="AA38" s="118"/>
+      <c r="AB38" s="119">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AC38" s="187"/>
-      <c r="AD38" s="188">
+      <c r="AC38" s="118"/>
+      <c r="AD38" s="119">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AE38" s="187"/>
-      <c r="AF38" s="188">
+      <c r="AE38" s="118"/>
+      <c r="AF38" s="119">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG38" s="187"/>
-      <c r="AH38" s="189">
+      <c r="AG38" s="118"/>
+      <c r="AH38" s="120">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AI38" s="189">
+      <c r="AI38" s="120">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AJ38" s="189">
+      <c r="AJ38" s="120">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AK38" s="189">
+      <c r="AK38" s="120">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AL38" s="189">
+      <c r="AL38" s="120">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AM38" s="189">
+      <c r="AM38" s="120">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AN38" s="190">
+      <c r="AN38" s="121">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:47" ht="25" customHeight="1">
-      <c r="A39" s="131"/>
-      <c r="B39" s="132" t="s">
+      <c r="A39" s="71"/>
+      <c r="B39" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="133"/>
-      <c r="D39" s="181">
+      <c r="C39" s="140"/>
+      <c r="D39" s="112">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="E39" s="146">
+      <c r="E39" s="83">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F39" s="145">
+      <c r="F39" s="82">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G39" s="146">
+      <c r="G39" s="83">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="H39" s="147">
+      <c r="H39" s="84">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I39" s="182">
+      <c r="I39" s="113">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="J39" s="145">
+      <c r="J39" s="82">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K39" s="182">
+      <c r="K39" s="113">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="L39" s="149">
+      <c r="L39" s="86">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="M39" s="183">
+      <c r="M39" s="114">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="N39" s="157">
+      <c r="N39" s="94">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="O39" s="182">
+      <c r="O39" s="113">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="P39" s="181">
+      <c r="P39" s="112">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="184">
+      <c r="Q39" s="115">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="R39" s="151"/>
-      <c r="S39" s="191"/>
-      <c r="T39" s="157">
+      <c r="R39" s="88"/>
+      <c r="S39" s="122"/>
+      <c r="T39" s="94">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="U39" s="187"/>
-      <c r="V39" s="188">
+      <c r="U39" s="118"/>
+      <c r="V39" s="119">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="W39" s="187"/>
-      <c r="X39" s="188">
+      <c r="W39" s="118"/>
+      <c r="X39" s="119">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y39" s="187"/>
-      <c r="Z39" s="188">
+      <c r="Y39" s="118"/>
+      <c r="Z39" s="119">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AA39" s="187"/>
-      <c r="AB39" s="188">
+      <c r="AA39" s="118"/>
+      <c r="AB39" s="119">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AC39" s="187"/>
-      <c r="AD39" s="188">
+      <c r="AC39" s="118"/>
+      <c r="AD39" s="119">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AE39" s="187"/>
-      <c r="AF39" s="188">
+      <c r="AE39" s="118"/>
+      <c r="AF39" s="119">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG39" s="187"/>
-      <c r="AH39" s="189">
+      <c r="AG39" s="118"/>
+      <c r="AH39" s="120">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AI39" s="189">
+      <c r="AI39" s="120">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AJ39" s="189">
+      <c r="AJ39" s="120">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AK39" s="189">
+      <c r="AK39" s="120">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AL39" s="189">
+      <c r="AL39" s="120">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AM39" s="189">
+      <c r="AM39" s="120">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AN39" s="190">
+      <c r="AN39" s="121">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:47" ht="25" customHeight="1">
-      <c r="A40" s="131"/>
-      <c r="B40" s="132" t="s">
+      <c r="A40" s="71"/>
+      <c r="B40" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="133"/>
-      <c r="D40" s="145">
+      <c r="C40" s="140"/>
+      <c r="D40" s="82">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="E40" s="146">
+      <c r="E40" s="83">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F40" s="145">
+      <c r="F40" s="82">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G40" s="146">
+      <c r="G40" s="83">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="H40" s="145">
+      <c r="H40" s="82">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I40" s="146">
+      <c r="I40" s="83">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="J40" s="145">
+      <c r="J40" s="82">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K40" s="148">
+      <c r="K40" s="85">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="L40" s="149">
+      <c r="L40" s="86">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="M40" s="150">
+      <c r="M40" s="87">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="N40" s="147">
+      <c r="N40" s="84">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="O40" s="148">
+      <c r="O40" s="85">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="P40" s="145">
+      <c r="P40" s="82">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="146">
+      <c r="Q40" s="83">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="R40" s="151"/>
-      <c r="S40" s="152"/>
-      <c r="T40" s="145">
+      <c r="R40" s="88"/>
+      <c r="S40" s="89"/>
+      <c r="T40" s="82">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="U40" s="153"/>
-      <c r="V40" s="154">
+      <c r="U40" s="90"/>
+      <c r="V40" s="91">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="W40" s="153"/>
-      <c r="X40" s="154">
+      <c r="W40" s="90"/>
+      <c r="X40" s="91">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y40" s="153"/>
-      <c r="Z40" s="154">
+      <c r="Y40" s="90"/>
+      <c r="Z40" s="91">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AA40" s="153"/>
-      <c r="AB40" s="154">
+      <c r="AA40" s="90"/>
+      <c r="AB40" s="91">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AC40" s="153"/>
-      <c r="AD40" s="154">
+      <c r="AC40" s="90"/>
+      <c r="AD40" s="91">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AE40" s="153"/>
-      <c r="AF40" s="154">
+      <c r="AE40" s="90"/>
+      <c r="AF40" s="91">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG40" s="153"/>
-      <c r="AH40" s="155">
+      <c r="AG40" s="90"/>
+      <c r="AH40" s="92">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AI40" s="155">
+      <c r="AI40" s="92">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AJ40" s="155">
+      <c r="AJ40" s="92">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AK40" s="155">
+      <c r="AK40" s="92">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AL40" s="155">
+      <c r="AL40" s="92">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AM40" s="155">
+      <c r="AM40" s="92">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AN40" s="156">
+      <c r="AN40" s="93">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:47" ht="25" customHeight="1">
-      <c r="A41" s="131"/>
-      <c r="B41" s="132" t="s">
+      <c r="A41" s="71"/>
+      <c r="B41" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="133"/>
-      <c r="D41" s="145">
+      <c r="C41" s="140"/>
+      <c r="D41" s="82">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="E41" s="146">
+      <c r="E41" s="83">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F41" s="145">
+      <c r="F41" s="82">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G41" s="148">
+      <c r="G41" s="85">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="H41" s="181">
+      <c r="H41" s="112">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I41" s="146">
+      <c r="I41" s="83">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="J41" s="145">
+      <c r="J41" s="82">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K41" s="148">
+      <c r="K41" s="85">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="L41" s="192">
+      <c r="L41" s="123">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="M41" s="193">
+      <c r="M41" s="124">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="N41" s="147">
+      <c r="N41" s="84">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="O41" s="148">
+      <c r="O41" s="85">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="P41" s="145">
+      <c r="P41" s="82">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="146">
+      <c r="Q41" s="83">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="R41" s="151"/>
-      <c r="S41" s="152"/>
-      <c r="T41" s="145">
+      <c r="R41" s="88"/>
+      <c r="S41" s="89"/>
+      <c r="T41" s="82">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="U41" s="153"/>
-      <c r="V41" s="154">
+      <c r="U41" s="90"/>
+      <c r="V41" s="91">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="W41" s="153"/>
-      <c r="X41" s="154">
+      <c r="W41" s="90"/>
+      <c r="X41" s="91">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y41" s="153"/>
-      <c r="Z41" s="154">
+      <c r="Y41" s="90"/>
+      <c r="Z41" s="91">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AA41" s="153"/>
-      <c r="AB41" s="154">
+      <c r="AA41" s="90"/>
+      <c r="AB41" s="91">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AC41" s="153"/>
-      <c r="AD41" s="154">
+      <c r="AC41" s="90"/>
+      <c r="AD41" s="91">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AE41" s="153"/>
-      <c r="AF41" s="154">
+      <c r="AE41" s="90"/>
+      <c r="AF41" s="91">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG41" s="153"/>
-      <c r="AH41" s="155">
+      <c r="AG41" s="90"/>
+      <c r="AH41" s="92">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AI41" s="155">
+      <c r="AI41" s="92">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AJ41" s="155">
+      <c r="AJ41" s="92">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AK41" s="155">
+      <c r="AK41" s="92">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AL41" s="155">
+      <c r="AL41" s="92">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AM41" s="155">
+      <c r="AM41" s="92">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AN41" s="156">
+      <c r="AN41" s="93">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:47" ht="25" customHeight="1">
-      <c r="A42" s="131"/>
-      <c r="B42" s="132"/>
-      <c r="C42" s="133"/>
-      <c r="D42" s="145">
+      <c r="A42" s="71"/>
+      <c r="B42" s="139"/>
+      <c r="C42" s="140"/>
+      <c r="D42" s="82">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="E42" s="146">
+      <c r="E42" s="83">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F42" s="145">
+      <c r="F42" s="82">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G42" s="148">
+      <c r="G42" s="85">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="H42" s="145">
+      <c r="H42" s="82">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I42" s="148">
+      <c r="I42" s="85">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="J42" s="181">
+      <c r="J42" s="112">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K42" s="146">
+      <c r="K42" s="83">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="L42" s="194">
+      <c r="L42" s="125">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="M42" s="195">
+      <c r="M42" s="126">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="N42" s="147">
+      <c r="N42" s="84">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="O42" s="148">
+      <c r="O42" s="85">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="P42" s="145">
+      <c r="P42" s="82">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="Q42" s="146">
+      <c r="Q42" s="83">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="R42" s="151"/>
-      <c r="S42" s="152"/>
-      <c r="T42" s="145">
+      <c r="R42" s="88"/>
+      <c r="S42" s="89"/>
+      <c r="T42" s="82">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="U42" s="153"/>
-      <c r="V42" s="154">
+      <c r="U42" s="90"/>
+      <c r="V42" s="91">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="W42" s="153"/>
-      <c r="X42" s="154">
+      <c r="W42" s="90"/>
+      <c r="X42" s="91">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Y42" s="153"/>
-      <c r="Z42" s="154">
+      <c r="Y42" s="90"/>
+      <c r="Z42" s="91">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AA42" s="153"/>
-      <c r="AB42" s="154">
+      <c r="AA42" s="90"/>
+      <c r="AB42" s="91">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AC42" s="153"/>
-      <c r="AD42" s="154">
+      <c r="AC42" s="90"/>
+      <c r="AD42" s="91">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AE42" s="153"/>
-      <c r="AF42" s="154">
+      <c r="AE42" s="90"/>
+      <c r="AF42" s="91">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AG42" s="153"/>
-      <c r="AH42" s="155">
+      <c r="AG42" s="90"/>
+      <c r="AH42" s="92">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AI42" s="155">
+      <c r="AI42" s="92">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AJ42" s="155">
+      <c r="AJ42" s="92">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="AK42" s="155">
+      <c r="AK42" s="92">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AL42" s="155">
+      <c r="AL42" s="92">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="AM42" s="155">
+      <c r="AM42" s="92">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AN42" s="156">
+      <c r="AN42" s="93">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:47" ht="25" customHeight="1" thickBot="1">
-      <c r="A43" s="196"/>
-      <c r="B43" s="161"/>
-      <c r="C43" s="162"/>
-      <c r="D43" s="197">
+      <c r="A43" s="127"/>
+      <c r="B43" s="141"/>
+      <c r="C43" s="142"/>
+      <c r="D43" s="128">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="E43" s="146">
+      <c r="E43" s="83">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="F43" s="145">
+      <c r="F43" s="82">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G43" s="148">
+      <c r="G43" s="85">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="H43" s="197">
+      <c r="H43" s="128">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="I43" s="198">
+      <c r="I43" s="129">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="J43" s="147">
+      <c r="J43" s="84">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K43" s="148">
+      <c r="K43" s="85">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="L43" s="199">
+      <c r="L43" s="130">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="M43" s="127">
+      <c r="M43" s="68">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="N43" s="197">
+      <c r="N43" s="128">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="O43" s="148">
+      <c r="O43" s="85">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="P43" s="197">
+      <c r="P43" s="128">
         <f>COUNTIF($C21:$AG21,"/訪")</f>
         <v>0</v>
       </c>
-      <c r="Q43" s="198">
+      <c r="Q43" s="129">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="R43" s="160"/>
-      <c r="S43" s="152"/>
-      <c r="T43" s="145">
+      <c r="R43" s="97"/>
+      <c r="S43" s="89"/>
+      <c r="T43" s="82">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="U43" s="153"/>
-      <c r="V43" s="154">
+      <c r="U43" s="90"/>
+      <c r="V43" s="91">
         <f>COUNTIF($C21:$AG21,"/休")+COUNTIF($C21:$AG21,"休/")+COUNTIF($C21:$AG21,"/")</f>
         <v>0</v>
       </c>
-      <c r="W43" s="153"/>
-      <c r="X43" s="154">
+      <c r="W43" s="90"/>
+      <c r="X43" s="91">
         <f>COUNTIF($C21:$AG21,"有/振")</f>
         <v>0</v>
       </c>
-      <c r="Y43" s="153"/>
-      <c r="Z43" s="154">
+      <c r="Y43" s="90"/>
+      <c r="Z43" s="91">
         <f>COUNTIF($C21:$AG21,"振")</f>
         <v>0</v>
       </c>
-      <c r="AA43" s="153"/>
-      <c r="AB43" s="154">
+      <c r="AA43" s="90"/>
+      <c r="AB43" s="91">
         <f>COUNTIF($C21:$AG21,"/振")+COUNTIF($C21:$AG21,"振/")+COUNTIF($C21:$AG21,"振/夕")</f>
         <v>0</v>
       </c>
-      <c r="AC43" s="153"/>
-      <c r="AD43" s="154">
+      <c r="AC43" s="90"/>
+      <c r="AD43" s="91">
         <f>COUNTIF($C21:$AG21,"有")</f>
         <v>0</v>
       </c>
-      <c r="AE43" s="153"/>
-      <c r="AF43" s="154">
+      <c r="AE43" s="90"/>
+      <c r="AF43" s="91">
         <f>COUNTIF($C21:$AG21,"/有")+COUNTIF($C21:$AG21,"有/")</f>
         <v>0</v>
       </c>
-      <c r="AG43" s="153"/>
-      <c r="AH43" s="155">
+      <c r="AG43" s="90"/>
+      <c r="AH43" s="92">
         <f>COUNTIF($C21:$AG21,"有/休")</f>
         <v>0</v>
       </c>
-      <c r="AI43" s="155">
+      <c r="AI43" s="92">
         <f>COUNTIF($C21:$AG21,"欠")</f>
         <v>0</v>
       </c>
-      <c r="AJ43" s="155">
+      <c r="AJ43" s="92">
         <f>COUNTIFS($C$5:$AG$5,"&lt;&gt;土",$C21:$AG21,"欠/")</f>
         <v>0</v>
       </c>
-      <c r="AK43" s="155">
+      <c r="AK43" s="92">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AL43" s="155">
+      <c r="AL43" s="92">
         <f>COUNTIF($C21:$AG21,"日/休")</f>
         <v>0</v>
       </c>
-      <c r="AM43" s="155">
+      <c r="AM43" s="92">
         <f>COUNTIF($C21:$AG21,"/訪")</f>
         <v>0</v>
       </c>
-      <c r="AN43" s="156">
+      <c r="AN43" s="93">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:47" ht="25" customHeight="1">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="200"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="201">
+      <c r="B44" s="134"/>
+      <c r="C44" s="135"/>
+      <c r="D44" s="143">
         <f>SUM(D28:D43)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="202"/>
-      <c r="F44" s="203">
+      <c r="E44" s="132"/>
+      <c r="F44" s="131">
         <f>SUM(F28:F43)</f>
         <v>0</v>
       </c>
-      <c r="G44" s="202"/>
-      <c r="H44" s="203">
+      <c r="G44" s="132"/>
+      <c r="H44" s="131">
         <f>SUM(H28:H43)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="202"/>
-      <c r="J44" s="203">
+      <c r="I44" s="132"/>
+      <c r="J44" s="131">
         <f>SUM(J28:J43)</f>
         <v>0</v>
       </c>
-      <c r="K44" s="202"/>
-      <c r="L44" s="203">
+      <c r="K44" s="132"/>
+      <c r="L44" s="131">
         <f>SUM(L28:L43)</f>
         <v>0</v>
       </c>
-      <c r="M44" s="202"/>
-      <c r="N44" s="203">
+      <c r="M44" s="132"/>
+      <c r="N44" s="131">
         <f>SUM(N28:N43)</f>
         <v>0</v>
       </c>
-      <c r="O44" s="202"/>
-      <c r="P44" s="203">
+      <c r="O44" s="132"/>
+      <c r="P44" s="131">
         <f>SUM(P28:P43)</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="202"/>
-      <c r="R44" s="203"/>
-      <c r="S44" s="202"/>
+      <c r="Q44" s="132"/>
+      <c r="R44" s="131"/>
+      <c r="S44" s="132"/>
     </row>
     <row r="45" spans="1:47" ht="25" customHeight="1">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="133" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="200"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="204">
+      <c r="B45" s="134"/>
+      <c r="C45" s="135"/>
+      <c r="D45" s="136">
         <f>D44*D26</f>
         <v>0</v>
       </c>
-      <c r="E45" s="205"/>
-      <c r="F45" s="204">
+      <c r="E45" s="137"/>
+      <c r="F45" s="136">
         <f>F44*F26</f>
         <v>0</v>
       </c>
-      <c r="G45" s="205"/>
-      <c r="H45" s="204">
+      <c r="G45" s="137"/>
+      <c r="H45" s="136">
         <f>H44*H26</f>
         <v>0</v>
       </c>
-      <c r="I45" s="205"/>
-      <c r="J45" s="204">
+      <c r="I45" s="137"/>
+      <c r="J45" s="136">
         <f>J44*J26</f>
         <v>0</v>
       </c>
-      <c r="K45" s="205"/>
-      <c r="L45" s="204">
+      <c r="K45" s="137"/>
+      <c r="L45" s="136">
         <f>L44*L26</f>
         <v>0</v>
       </c>
-      <c r="M45" s="205"/>
-      <c r="N45" s="204">
+      <c r="M45" s="137"/>
+      <c r="N45" s="136">
         <f>SUM(O28:O43)</f>
         <v>0</v>
       </c>
-      <c r="O45" s="205"/>
-      <c r="P45" s="204">
+      <c r="O45" s="137"/>
+      <c r="P45" s="136">
         <f>SUM(Q28:Q43)</f>
         <v>0</v>
       </c>
-      <c r="Q45" s="205"/>
-      <c r="R45" s="204"/>
-      <c r="S45" s="206"/>
+      <c r="Q45" s="137"/>
+      <c r="R45" s="136"/>
+      <c r="S45" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="AS3:AS5"/>
+    <mergeCell ref="A1:AG2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AL3:AL5"/>
+    <mergeCell ref="AM3:AM5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="AH4:AH5"/>
+    <mergeCell ref="AI4:AI5"/>
+    <mergeCell ref="AJ4:AJ5"/>
+    <mergeCell ref="AN3:AN5"/>
+    <mergeCell ref="AO3:AO5"/>
+    <mergeCell ref="AP3:AP5"/>
+    <mergeCell ref="AQ3:AQ5"/>
+    <mergeCell ref="AR3:AR5"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="AK4:AK5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="AL25:AL27"/>
+    <mergeCell ref="AM25:AM27"/>
+    <mergeCell ref="AN25:AN27"/>
+    <mergeCell ref="X25:Y27"/>
+    <mergeCell ref="Z25:AA27"/>
+    <mergeCell ref="AB25:AC27"/>
+    <mergeCell ref="AD25:AE27"/>
+    <mergeCell ref="AF25:AG27"/>
+    <mergeCell ref="AH25:AH27"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="AI25:AI27"/>
+    <mergeCell ref="AJ25:AJ27"/>
+    <mergeCell ref="AK25:AK27"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="T25:U27"/>
+    <mergeCell ref="V25:W27"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A44:C44"/>
     <mergeCell ref="R44:S44"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="D45:E45"/>
@@ -8661,101 +8734,17 @@
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
     <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="AI25:AI27"/>
-    <mergeCell ref="AJ25:AJ27"/>
-    <mergeCell ref="AK25:AK27"/>
-    <mergeCell ref="AL25:AL27"/>
-    <mergeCell ref="AM25:AM27"/>
-    <mergeCell ref="AN25:AN27"/>
-    <mergeCell ref="X25:Y27"/>
-    <mergeCell ref="Z25:AA27"/>
-    <mergeCell ref="AB25:AC27"/>
-    <mergeCell ref="AD25:AE27"/>
-    <mergeCell ref="AF25:AG27"/>
-    <mergeCell ref="AH25:AH27"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="T25:U27"/>
-    <mergeCell ref="V25:W27"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="AN3:AN5"/>
-    <mergeCell ref="AO3:AO5"/>
-    <mergeCell ref="AP3:AP5"/>
-    <mergeCell ref="AQ3:AQ5"/>
-    <mergeCell ref="AR3:AR5"/>
-    <mergeCell ref="AS3:AS5"/>
-    <mergeCell ref="A1:AG2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AL3:AL5"/>
-    <mergeCell ref="AM3:AM5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="AH4:AH5"/>
-    <mergeCell ref="AI4:AI5"/>
-    <mergeCell ref="AJ4:AJ5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="C4:AG5">
     <cfRule type="expression" dxfId="41" priority="20">
       <formula>C$5="木"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="40" priority="41">
+      <formula>C$5="土"</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="39" priority="40">
       <formula>C$5="日"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="41">
-      <formula>C$5="土"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="38" priority="42">
       <formula>C$5="水"</formula>
@@ -8764,18 +8753,6 @@
   <conditionalFormatting sqref="C6:AG21">
     <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
       <formula>"有２"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
-      <formula>"休/振"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
-      <formula>"欠/"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
-      <formula>"欠"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
-      <formula>"有2"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
       <formula>"休/"</formula>
@@ -8819,17 +8796,20 @@
     <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
       <formula>"有"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="equal">
+      <formula>"有2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+      <formula>"休/振"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+      <formula>"欠"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+      <formula>"欠/"</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV6:AW21">
-    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
-      <formula>"有２"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
-      <formula>"休/振"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="23" operator="equal">
-      <formula>"欠/"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
       <formula>"欠"</formula>
     </cfRule>
@@ -8878,6 +8858,15 @@
     <cfRule type="cellIs" dxfId="3" priority="39" operator="equal">
       <formula>"有"</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="23" operator="equal">
+      <formula>"欠/"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="21" operator="equal">
+      <formula>"有２"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="equal">
+      <formula>"休/振"</formula>
+    </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
